--- a/data/hotels_by_city/Dallas/Dallas_shard_237.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_237.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="951">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1064">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Jerry B</t>
+  </si>
+  <si>
     <t>05/29/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Modern entry, great staff, comfortable room and best of all, it's convenient to hop on interstate to downtown, located next door to Costco, and Saltgrass Steak House across the street.  Doesn't get any better than this.More</t>
   </si>
   <si>
+    <t>Y17MEsusanb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r569632266-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>room was great, i wanted to take the bed home with me, that's how comfortable it wasroom had a microwave and refrigerator.  Great three night stay with no problemsThe continental breakfast was great, bagels, cereal, and make your own waffles.I would definitely stay there againMore</t>
   </si>
   <si>
+    <t>crosby3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r563214414-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -246,6 +255,9 @@
     <t>I enjoyed my stay at Fairfield, enough the I am returning again next week. The facilities are very nice. Staff is friendly. Rooms are nice. Decent rates for this area. I would recommend this to business travelers. Close proximity to both DFW and Love Field airports.More</t>
   </si>
   <si>
+    <t>Raymungus</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r551311014-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -276,6 +288,9 @@
     <t>This was our second time to stay at this Fairfield Inn &amp; Suites. We chose it because of price,queen beds, breakfast, location, indoor pool, and previous experience. Anthony at the front desk was great to deal with an helped us solve a problem we had upon check-in. The rooms were comfortable but I heard a lot of bumping and thumping sounds the first day and night...not sure what that was. Our second room had an air conditioner/heater that sounded like a jet engine when it came on. Overall, it was a pleasant stay and we will most likely stay there again in the future.More</t>
   </si>
   <si>
+    <t>Jesse M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r548931598-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -300,6 +315,9 @@
     <t>Stayed here to visit the Logo Land nearby with my family.The first impression was great for the man at the front desk, was polite and helpful.The room was really clean and smelled nice with comfortable beds.The only bad thing was the free internet was so slow, couldn't even surf the web unless you pay for faster internet.The do offer Netflix and Hulu on the TV which was cool, but again due to the slow internet could not use it.The breakfast was way more then expected with a large verity of foods and someone actually bringing more out when it gets low!Long story short, great stay for the price.More</t>
   </si>
   <si>
+    <t>Kerry C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r543443774-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -327,6 +345,9 @@
     <t>We stayed 3 nights room was very clean.  Staff at front desk was very friendly and helpful.  Coffee was always hot and ready.  We used mobile app to book and check in very convenient and easy to use.  We are also rewards members so our rate was cheaper and we prepaid on mobile app.More</t>
   </si>
   <si>
+    <t>ms s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r535577937-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -354,6 +375,9 @@
     <t>I checked in around 6 pm.  Immediately, I was literally sickened by an overpowering "fragrance".  I was advised to prop my door open and turn on the fan.  There I was, a single female, sitting at my room’s computer desk, dressed in my business clothes WITH THE DOOR PROPPED OPEN TO MY ROOM and getting sicker by the moment from the "deodorizer or maybe they had shampooed the carpets."  All I wanted was a clean room where I could get comfortable after a long business day, finish my paperwork and prepare for tomorrow's important business day.  My room was changed twice "because maybe the deodorizer wouldn't be as strong in other rooms."  After 3 hours of moving room to room and becoming progressively sicker, I advised management that I had to leave the hotel.  By now it was about 9 pm, I was terribly ill, my brain was fogged by the chemicals and I had nowhere to stay.  I called Marriott and they were useless in finding me another room.  Fortunately, the front desk found me a room 20 minutes away.  Finally, about 10:30 pm, I checked into the new hotel.  Now I am livid because after reading the reviews, I learned that the "fragrance" is an ongoing and longstanding complaint and it appears it might be used to treat or cover up mold. I believe that was the case because the reaction I had at the Fairfield Inn was...I checked in around 6 pm.  Immediately, I was literally sickened by an overpowering "fragrance".  I was advised to prop my door open and turn on the fan.  There I was, a single female, sitting at my room’s computer desk, dressed in my business clothes WITH THE DOOR PROPPED OPEN TO MY ROOM and getting sicker by the moment from the "deodorizer or maybe they had shampooed the carpets."  All I wanted was a clean room where I could get comfortable after a long business day, finish my paperwork and prepare for tomorrow's important business day.  My room was changed twice "because maybe the deodorizer wouldn't be as strong in other rooms."  After 3 hours of moving room to room and becoming progressively sicker, I advised management that I had to leave the hotel.  By now it was about 9 pm, I was terribly ill, my brain was fogged by the chemicals and I had nowhere to stay.  I called Marriott and they were useless in finding me another room.  Fortunately, the front desk found me a room 20 minutes away.  Finally, about 10:30 pm, I checked into the new hotel.  Now I am livid because after reading the reviews, I learned that the "fragrance" is an ongoing and longstanding complaint and it appears it might be used to treat or cover up mold. I believe that was the case because the reaction I had at the Fairfield Inn was the same reaction I get from exposure to mold. I find it unconscionable that I was deceived regarding the "fragrance".  Because of their deception, it took me 4.5 hours to check into my hotel room and when I finally did, I was gravely ill, my brain was in a debilitating fog, I had not had an opportunity to eat, finish my work or prepare for the next business day.  The following day, I was unprepared, performed poorly due to still being ill and in a brain fog from the side effects of the chemicals and suspected mold exposure as well as lack of sleep.  The reactions of my co-workers made it obvious to me that they sensed something was “off” with me that day. I love Marriotts and have never once had a negative experience until now but I am incensed that the greed of Fairfield Inn Lewisville TX to rent me a room took precedence over my health, well-being and career.  I feel truly violated by Fairfield Inn Lewisville TX.More</t>
   </si>
   <si>
+    <t>1twangster</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r526555869-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -384,6 +408,9 @@
     <t>Nice place, but overpriced compared to the superb Fairfield Inn I stayed at the night before in Texarkana. Lukewarm to cool shower water. I didn't experience the breakfast and coffee. The internet seemed slower than average the morning I used it. More</t>
   </si>
   <si>
+    <t>Dianne D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r520838830-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -408,6 +435,9 @@
     <t>This is a great little budget hotel. Nice lobby with a decent breakfast. Includes eggs, omelettes, sausage, waffles, etc. Rooms are clean and well appointed. The beds have nice linen and a duvet. Quiet place with plenty of parking. It has an indoor pool which I'm never thrilled but this one is better than most. Bonus for having large bath towels which are always appreciated. More</t>
   </si>
   <si>
+    <t>FamilyTraveler132</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r509165929-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -435,6 +465,9 @@
     <t>We had a helpful employee doing a big group check in and she was very friendly &amp; easy to work with.The location was in a location easy to go to &amp; from for our meetings. It was also close to many restaurant options.The bed was one of the most comfortable hotel beds  I've slept in. The noise by the ice machine &amp; elevator were disturbing when trying to go to sleep but not enough to wake me. The workout area was small but kept up nice &amp; plenty of space &amp; equipment.The breakfast had a lot of choices that included many healthy options along with waffles and other breakfast items.I would stay here again.More</t>
   </si>
   <si>
+    <t>Tim L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r499643095-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -462,6 +495,9 @@
     <t>The front desk greeting was great. Visited because the wife had a seminar at the Hilton across the street.  The room was well appointed and comfy.  Bed and pillows we're great.  Breakfast was good, hot and plentiful.Except for the people above us, a restful stay.More</t>
   </si>
   <si>
+    <t>Doug L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r495990787-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -489,6 +525,9 @@
     <t>I've stayed at about four of the hotels in this cluster by the mall. They are all about the same but this one seems routinely about 20% cheaper. There is a noise issue depending on who else is staying, kids sports teams etc. but overall it is a nice, clean place with comfortable beds and one of the better free breakfasts in the area. Also, there are plenty of eating options right there so it is convenient. The staff was friendly and that seems to add to the value. I'd book there again.More</t>
   </si>
   <si>
+    <t>Nmk3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r484498110-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -513,6 +552,9 @@
     <t>I travel.  A lot.  I'm in a hotel at least two or three times per month and have been for about eight years. Therefore, I tend to notice and become annoyed at things that others might not.  That's my disclaimer.  However, I feel compelled to share with you my dismay upon seeing the Fairfield Inn &amp; Suites Dallas-Lewsiville's sink/vanity area.  That thing is small.  Tiny, even.  It's boxed-in by walls and these little glass shelves that do nothing but serve to whack you on your elbows as you attempt to prepare for the day ahead.  It's like those suckers are fighting you for your toothpaste or something.  Not exactly an inspiring way to begin (or end) your day.  Ouch.  The rest of the room is pretty basic.  Bed was pretty comfortable.  When I unfolded it for my son, the sofabed had the seemingly-requisite layer of Goldfish crumbs coating the carpet underneath.  (Who are these parents who allow their children to absolutely feast on crackers and then loll to sleep in a pile of carbohydrate debris???  Nasty.)  Shower was a walk-in.  Fine.  It was hot in that room when we arrived at 10:00PM.  It never cooled off below 73 degrees, even though I set the AC to 65.  If you take a hot shower, prepare to have a room-sized sauna on your hands for at least an hour afterward.  Room ventilation was lackluster at best.  Breakfast = basic.  Fine.  Mysterious cloying...I travel.  A lot.  I'm in a hotel at least two or three times per month and have been for about eight years. Therefore, I tend to notice and become annoyed at things that others might not.  That's my disclaimer.  However, I feel compelled to share with you my dismay upon seeing the Fairfield Inn &amp; Suites Dallas-Lewsiville's sink/vanity area.  That thing is small.  Tiny, even.  It's boxed-in by walls and these little glass shelves that do nothing but serve to whack you on your elbows as you attempt to prepare for the day ahead.  It's like those suckers are fighting you for your toothpaste or something.  Not exactly an inspiring way to begin (or end) your day.  Ouch.  The rest of the room is pretty basic.  Bed was pretty comfortable.  When I unfolded it for my son, the sofabed had the seemingly-requisite layer of Goldfish crumbs coating the carpet underneath.  (Who are these parents who allow their children to absolutely feast on crackers and then loll to sleep in a pile of carbohydrate debris???  Nasty.)  Shower was a walk-in.  Fine.  It was hot in that room when we arrived at 10:00PM.  It never cooled off below 73 degrees, even though I set the AC to 65.  If you take a hot shower, prepare to have a room-sized sauna on your hands for at least an hour afterward.  Room ventilation was lackluster at best.  Breakfast = basic.  Fine.  Mysterious cloying air freshener scent that lingers like that crazy ex from college = check.  Anyway, since there are many other options (right across the street, in fact) in the immediate vicinity, I won't stay here again.  If you choose to brave the elbow-shredding-gauntlet that awaits you at the Fairfield Inn Dallas-Lewisville vanity area, bring antiseptic and bandages.  Bloody arms ain't cute.More</t>
   </si>
   <si>
+    <t>Jerry S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r479863904-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -540,6 +582,9 @@
     <t>I have stayed at this hotel several times, associated with work travel. The quality of the rooms is very good for the standard rates.The location of the hotel provides easy access to I-35 and HWY-121; so, opportunities for activities are endless.The best characteristic of the hotel is the helpful and kind staff.Jacob, at the front desk, went beyond what he had to do to help me reconcile a reservation snafu of my own making. That kind of courtesy is 5-Star-Hotel level treatment. Thanks, Jacob!More</t>
   </si>
   <si>
+    <t>Shakespeare_fan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r479601010-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -564,6 +609,9 @@
     <t>Room was large and very clean.  Breakfast was basic but included a few healthy options.  I appreciated that it was fully laid out before the official 6 am start time.  Internet was free, with good speed. Only complaint was the noise.  Two issues (1) This hotel is very close to the highway.  Noisy trucks and motorcycles interrupted my sleep.  Next time I will choose a hotel a mile or more away from the highway.   (2) a/c unit cycles on and off every few minutes. This is also very noisy.  This also interrupted sleep. More</t>
   </si>
   <si>
+    <t>David K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r479007139-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -588,6 +636,9 @@
     <t>This didn't seem to be the better of the Fairfield Inns but it was certainly a nice hotel.  It was within walking distance of Costco.  The hot breakfast was fine.  The room was clean and comfortable.  The staff was helpful and responsive.More</t>
   </si>
   <si>
+    <t>Kelly K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r471255441-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -597,6 +648,9 @@
     <t>March 29, 2017</t>
   </si>
   <si>
+    <t>Samantha K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r471183414-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -624,6 +678,9 @@
     <t>A recent work trip took me to Lewisville - this is a typical Fairfield and was clean and fairly updated. Breakfast options were good, and rooms were kept clean. There was something going on the week that we were there, so we were glad to be able to get all of us into one hotel, especially with how booked everything was.More</t>
   </si>
   <si>
+    <t>L G L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r469227762-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -648,6 +705,9 @@
     <t>Very nice king room, clean, well maintained. Very nice eating area, plenty of room. A little sparse on the breakfast fare but ok. Excellent service on check-in very warm welcome. Will definitely stay here next time in North DallasMore</t>
   </si>
   <si>
+    <t>utex99</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r468048397-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -675,6 +735,9 @@
     <t>Stayed at this hotel in late February for 2 nights for a wedding in Grapevine near Bass Pro Shop.  Hotel is very adequate for what I was looking for.  Traveled alone.  Room was clean and well kept.  House keeping was good.  I did not eat breakfast there but know it has the usual options for a Fairfield Inn breakfast.  Location is right next to Vista Ridge Mall and the intersection of 121 and IH-35.  Quick and easy access to DFW (assuming traffic isn't an issue).  Would stay here again given the same circumstances for why I was there.More</t>
   </si>
   <si>
+    <t>vidit09</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r453741911-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -702,6 +765,9 @@
     <t>The rooms are large and good. I was on the first floor and rooms are quite and the staff helpful. Housekeeping was also very good. The only thing was that the rates for my days were higher than the general going price of this hotel, not sure why as the hotel was not full.More</t>
   </si>
   <si>
+    <t>Stephanie R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r445389709-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -729,6 +795,9 @@
     <t>Stayed for a one night stay had booked two rooms! no issues at all. Nice property, Great staff, and nice atmosphere. Breakfast was ok nothing special but service was kept clean and food was hot and ready to be served.More</t>
   </si>
   <si>
+    <t>5surdams</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r439765285-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -753,6 +822,9 @@
     <t>The Fairfield is a very updated and clean place to stay.  The price was the best I found for a quickly planned trip.  I was disappointed with breakfast and the noise level from other guest.  The person next to us kept their TV volume so loud it woke me up around 3 a.m.  More</t>
   </si>
   <si>
+    <t>wb2218</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r439744159-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -768,6 +840,9 @@
     <t>Had a room on the second floor it was pretty quite. Staff was very helpful anytime I requested anything. Housekeeping was great room was kept very clean, thank you for that it was very much appreciated. Breakfast was very good as well. I will stay here again.More</t>
   </si>
   <si>
+    <t>Shashivas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r433100883-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -795,6 +870,9 @@
     <t>I paid a great price and had a great stay. The new breakfast they just rolled out was really good. The girl at the front desk said they recently went through a renovation, and I can tell. I loved the new decor. More</t>
   </si>
   <si>
+    <t>Priyavas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r433099892-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -810,6 +888,9 @@
     <t>I walked through the entire hotel and was surprised by how clean everything was! I spent a couple of hours at the pool and after a long day at work really enjoyed the jacuzzi!!! I would definitely stay here again! More</t>
   </si>
   <si>
+    <t>Cypressman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r432267255-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -832,6 +913,9 @@
   </si>
   <si>
     <t>Staff was friendly, check in was seamless but much needed in terms of service.1). The hot tub was cold and with a filth ring; not pleasant. Hot tubs and pools should be a maintenance priority to be inspected and in  good condition daily with proper cleaning and chemicals. After a long day at work there is much satisfaction from soaking in a hot tub to relax.  That was not the case here!2. Keep your hotel clean.  There is no reason for a huge roach to arrive in my room from the hall  for a greeting; see picture.  This ruined my stay, I cut it short and checked out in the morning, a day earlier than scheduled; I would have done so that very night if I wasn't so darn tired. The front desk could not tell me their process to eliminate bugs.  He did apologize but no satisfactory answer.Needless to say that I was so disgusted that I had an awful night and most certainly skipped breakfast at the hotel.More</t>
+  </si>
+  <si>
+    <t>Wilma T</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r427019922-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -862,6 +946,9 @@
 3. The pool was not open, again. So, it turns out this wasn't just a one time occurrence as has happened in the past, but it's apparently a fairly regular pattern or practice at this particular hotel just to shut the pool down or leave it offline. And, this was a weekend where the entire hotel was booked. What makes this even more surprising is that I called ahead for the sole purpose of making sure that the pool would be open for my kids. And, given the age...1. We booked 2 rooms, 1 of which was not ready by the guaranteed check in time of 3pm. In fact, we had to wait with my wife's elderly parents in the lobby for around 1 hour while housekeeping was trying to locate what turned out to be 1 missing pillow, which is why they wouldn't let us into the room simply to drop off luggage and go eat after a long drive there.2. After providing the hotel with a valid credit card, the evening shift front desk clerk still would not accept an upfront payment of cash for most of our room expenses. She was a nice girl, but obviously had been told either to not accept any cash payment, not trained on how to input an upfront cash payment into the system correctly or simply didn't want to prepare a cash drop at the end of her shift.3. The pool was not open, again. So, it turns out this wasn't just a one time occurrence as has happened in the past, but it's apparently a fairly regular pattern or practice at this particular hotel just to shut the pool down or leave it offline. And, this was a weekend where the entire hotel was booked. What makes this even more surprising is that I called ahead for the sole purpose of making sure that the pool would be open for my kids. And, given the age of this particular property relative to the new hotels around it, an indoor heated pool is one of the few things this property has left going for it. Can't tell me there wasn't a pool maintenance &amp; repair guy around in the entire Dallas metroplex to fix things, if that was even necessary which I strongly suspect that it was not, before I first discovered the pool was closed at 3pm on Friday. The truth probably is that with all the college kids staying at the hotel someone just made a decision to shut it down.4. Not sure why on a 2 night stay my room keys would only be valid for 1 night. Really not that big of a deal other than it left us stuck outside the south door with handfuls of stuff without a way to get in on Saturday night. So, we had to walk all the way around to the front entrance just to get the room cards re-keyed for that 1 additional night. Like I said, not that big of a deal, but on top of everything else it just added insult to injury.5. Trying to figure out the channels on the TV in our room and use the remote to navigate there (I was just looking for Fox News) was like trying to read Egyptian hieroglyphics, almost impossible. I'm not even sure the guide in our room matched the channels that were actually on the...More</t>
   </si>
   <si>
+    <t>nikebrisngr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r415952481-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -889,6 +976,9 @@
     <t>The Good: Great service at the front desk. Arrived at 9:50 pm and wanted to use pool which closes at 10:00 pm;  staff offered to keep pool open until 10:30 pm.                      Clean, comfortable, quiet room even with proximity to freeway.  Well-lit parking lot.      Free Internet. Good breakfast.The not-so-Good: Have to drive 10-15 minutes for good dinner.More</t>
   </si>
   <si>
+    <t>Miriam O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r397326058-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -916,6 +1006,9 @@
     <t>I gave this place a plus 5.  Michael Ruiz and all the staff were very accommodating. We needed 25 rooms since folks were coming out of town for my sisters funeral.  They took care of us and we can't thank them enough.   The location was just great.  The airport only 15 minutes away and walking distance to get food.  There is a Costco right next to the hotel.More</t>
   </si>
   <si>
+    <t>DriverM10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r393166524-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -943,6 +1036,9 @@
     <t>Good clean room. Friendly atmosphere. Centrally located, lots of amenities in this area. the hotel was not fancy, but it was an excellent place to stay. The staff was friendly and courteous. All the common areas were clean.More</t>
   </si>
   <si>
+    <t>eking22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r391343740-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -967,6 +1063,9 @@
     <t>My recent stay at Fairfield was average. It was not the hotel itself but the service. When I was checked in the front desk employee Amanda was not friendly at all. First off she was off to the side of the desk eating when I came. That was not a problem but don't act like I am disturbing you. I have stayed at several Marriott's and normally get a warm welcome and she was very stand off-ish. As I was getting checked in I had questions and she kept her head down most of the time. Once I was checked in I asked where our room was located and she looked like how dare I ask. I thought maybe she had a bad day, only to see her the next evening and once again. No eye contact, no hello, NOTHING, it just was not like the warm welcome like I typically get with Marriott properties. I was more welcomed by the housekeeping ladies. My suggestion would be to maybe have her work in the back, she doesn't appear to have people skills. I will say the lady in the morning was VERY nice. I can not recall her name but she had two pig tails. She was pleasant.More</t>
   </si>
   <si>
+    <t>Ocnangel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r375845494-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -991,6 +1090,9 @@
     <t>Decent hotel. Arrived really late.  Room was feather free as requested. The only problem was the high speed Internet connection didn't work. Didn't have time to sit and wait for them to fix it. Otherwise was a good typical Fairfield Inn. More</t>
   </si>
   <si>
+    <t>DevineSheba</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r357033561-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1015,6 +1117,9 @@
     <t>I would like to speak praise to a young lady named Diamon Thompson. She did a wonderful job of putting my mind at ease. When I came in to the place after booking a room I gave the original attendant my military ID upon check in, for some reason she did give the correct rate. I called to the front desk and Diamon listened to what I had to say.. She apologize but never placed blame. She assured me that she would take care of the rate and I wouldn't be over charged. So I thank her for that she did for me this morning. Please let her know that I really appreciate her.More</t>
   </si>
   <si>
+    <t>HotelSnob0719</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r355809776-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1042,6 +1147,9 @@
     <t>I stayed at this hotel with my husband. My initial impression at check-in was nothing to brag about, the associate was clearly not happy to be there and was not willing to offer any assistance outside of checking us in. The next day I encountered a gentleman and young lady for the life of me I can't remember their names but they were a pleasure especially the gentleman. He told me of his new born child and how much he loved working in Texas as he was originally from California. He made a world of difference from the first guy, I think his name was Tim, not a good representative of Marriott and what they stand for. Would stay again but would definitely pray that the other guy is working! The hotel itself was nice except the toilet was very loud.More</t>
   </si>
   <si>
+    <t>John C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r346365118-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1069,6 +1177,9 @@
     <t>I was in Dallas in a five star hotel. Then I needed to change my location,so I called the Fairfield inn to get some info .they referred me to reservations. The hotel reservations hot line wanted to know when I was staying and if I had Marriott rewards.I asked if they had a swimming pool they did not know. If you get a room there make sure you get the front desk #and call to make sure they have what you need before you book. P.S . I was booked in two  different hotels at the same time.More</t>
   </si>
   <si>
+    <t>Flora S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r321665406-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1093,6 +1204,9 @@
     <t>The hotel is just behind Costco, very easy to IH-121, and the lobby was renovated recently. During my 3-night stay, the hotel is super clean, no matter in the lobby, or in my guest room. The front desk staff members are so nice, friendly, and helpful. They are always ready to provide help and local information I needed, esp. Kristen and Cecilia. If it's in my power range, I will get them a salary raise for their excellent customer service. More</t>
   </si>
   <si>
+    <t>dlyn1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r318376543-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1120,6 +1234,9 @@
     <t>I've stayed at numerous Marriott hotels, and have always been satisfied until my stay here. Air didn't work, housekeeping walked in twice, and didn't understand anything I was asking, elevator was broken. Ugh! Never again will I stay here. More</t>
   </si>
   <si>
+    <t>Greg C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r312347865-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1144,6 +1261,9 @@
     <t>I almost could not find anything to critique in this hotel.  The staff was nice, check-in was easy, and the room was excellent.  The location was easily accessible, and it was close to almost anything you would need (mall, restaurants, etc.).  The beds were very comfortable.  The breakfast was decent the first morning there.  The last morning breakfast left a little to be desired.  It seemed that they were out of almost everything.  That was no enough to ruin an otherwise excellent stay.  More</t>
   </si>
   <si>
+    <t>Jack B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r309957147-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1171,6 +1291,9 @@
     <t>We arrived to this hotel after taking a red eye from Phoenix. I called the day before to let them know we would be arriving at 2am. They were very understanding and told me they would communicate this to the night auditor. They did a wonderful job and we were welcomed with a pleasant smile when we arrived at 2am. Check-in was fast and easy. The breakfast in the morning was filling and delicious. All of the staff members were tremendously helpful and friendly. It's what we had come to expect and enjoy about staying at Marriot Hotels.More</t>
   </si>
   <si>
+    <t>LSUFAN67</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r303028185-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1198,6 +1321,9 @@
     <t>This Fairfield has been recently renovated and it is nice.  When I was arrive I had reserved a standard King room but was upgraded to a suite with separate sleeping and living areas.  The staff is professional and friendly as well as knowledgeable of the local area.  Since the weather has been extremely hot here in the Dallas area the AC units are running upon entry into the room.  This room 315 was quite cool all through the day as I worked from the desk.  The room is well appointed with living are with large LED TV, desk area and couch sitting area.  The sleeping side had a King size bed, dresser, another large TV, Fridge and Microwave. The bath area is separated into sink area and the toilet shower area.  This suite had only a large walk in shower but no tub.  There are a few restaurants near by.  This is a great place if you have business on the NW side of Big D. More</t>
   </si>
   <si>
+    <t>ColibriSMA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r293790538-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1225,6 +1351,9 @@
     <t>First the staff, Christina, Matt, the housekeeping supervisor and others I can't individually name, made our 3 night stay outstanding.    The rooms are large, very clean, with nice amenities.    We were in Lewisville for a family funeral, with several other relatives staying, and the staff went out of their way to help us.     The pool looked nice for kids, the rooms were immaculate, breakfast was good, even the third morning!    After we left, I remembered I had left our swim bag in the room and Matt and the housekeeping staff did everything to make sure it is being returned to us.    Beds were very comfortable, and we would certainly stay again.One possible improvement:   the shuttle does not go to the airport, and there are about 4 or 5 Marriott hotels within a minute,,,, maybe they could cooperate for airport shuttle service.   Thanks!More</t>
   </si>
   <si>
+    <t>Shae 9</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r290353358-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1243,6 +1372,9 @@
     <t>Wonderful stay!  The staff was excellent, polite and very friendly! The hotel had been upgraded with the new look and everything was nice. Room spacious as well. Only thing missing is the microwave in the rooms, other than that we enjoyed our stay very much. Breakfast was nice as well. Make sure those sweet ladies have a fan or some type of air flowing at the front desk. I noticed that area is not air sufficient enough for them and Texas is hot!More</t>
   </si>
   <si>
+    <t>happycouplesc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r288810653-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1267,6 +1399,9 @@
     <t>Nice enough place I suppose, but I will never really know since they screwed me over on a prepaid reservation! I showed up at 8:45 pm dead dog tired and ready for my room only to be told I didn't have a room. This, despite me confirming late arrival and the hotel having my credit card. Who does this? The way it's supposed to work is you give them your credit card, they hold the room. If you don't show up, you still get charged. It's that simple. How could they screw it up? Except they did. They sent me packing to the next hotel up a busy street in the 100 degree Texas heat. No ride. It was a half mile away. Totally unacceptable. I will find out who owns this place and NEVER do business with them again.More</t>
   </si>
   <si>
+    <t>LOVE2LOUNGE</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r284387701-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1288,6 +1423,9 @@
     <t>I was visiting family in the Dallas area and booked this hotel based other reviews. It was a clean, modern hotel with nice amenities and super comfy beds! The front desk staff was very polite and even helped me scrounge up some yogurt and milk for my daughter after we had missed the breakfast buffet. Location is excellent with a variety of restaurants, drugstores, mall and highway access. We did not use the pool so I can't comment on that but it looked clean.Overall, no complaints and I would happily stay there again on my next visit.More</t>
   </si>
   <si>
+    <t>Karen W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r268632595-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1309,6 +1447,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>MommyOfTwo88</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r266577784-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1327,6 +1468,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>Joseph W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r261744534-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1345,6 +1489,9 @@
     <t>This Fairfield Inn was very nice.  The location was great, very close to shopping and restaurants and the room was very nice.  There were only two areas that needed attention and I sent an email to the Manager so they could be addressed, but have not heard back yet. One, there were no sanitizer wipes in the Exercise Room.  To me, this is unacceptable. I can't remember the last time I stayed at a hotel that did not have them.  The Exercise room did have great equipment, was very spacious, and had water and towels. Second, nobody made coffee for the early risers.  The front desk personnel, who, I believe, is usually tasked with that responsibility did not do it and waited until the kitchen staff came in to get it prepared.  Waiting until almost 7:00 am on the weekend for coffee is just wrong.  Other than these two issues, this hotel was excellent.More</t>
   </si>
   <si>
+    <t>Jeff H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r254751804-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1363,6 +1510,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>JeffreyPMc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r254458583-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1381,6 +1531,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>Kaleu711</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r242844904-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1408,6 +1561,9 @@
     <t>We have relatives nearby so I was deciding between this place and the Hampton Inn across the street.  I picked this because there was reported construction over at the Hampton.  I had a room with a King bed which was clean and comfortable.  WiFi connection worked fine.  The place is pretty much on par with other Fairfield Inn's I've stayed.  I did have a problem with the heating/air conditioning unit.  It seemed like it was always hot in the room.  It's one of those units that's under the window.  I never like those units as they tend to be noisy plus the fan turns on and off as the unit cycles.  So you get constant noise interruptions which makes it hard to get a good nights rest hearing the AC go on and off all night.  I think next time I'll try the Hampton Inn instead.More</t>
   </si>
   <si>
+    <t>Charles B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r240542592-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1423,6 +1579,9 @@
     <t>Stayed they, and had a good visit. Good location, near Vista Ridge Mall. We were visiting Flower Mound, so very close. The room was clean, hotel lobby clean,  parking was ok, however out in the open..The breakfast bar better than expected. Good choices, lots of seating.</t>
   </si>
   <si>
+    <t>Crystal M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r239989052-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1438,6 +1597,9 @@
     <t xml:space="preserve">We stayed for a week as a family. Housekeeping was wonderful! Very accommodating hotel. Great beds! Awesome TV selection. Great internet connection on 2nd floor. No issues! Breakfast was great according to the kids and spouse. Very nice stay. Will be back! </t>
   </si>
   <si>
+    <t>OTCarter1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r235639759-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1483,6 +1645,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>Harperrv</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r224827033-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1501,6 +1666,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>k N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r214989602-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1522,6 +1690,9 @@
     <t>After a horrible experience at another hotel, my husband, son and I checked in at Fairfield for our 3 day stay in Lewisville. The front desk really made us feel right at home. The place is newly renovated and very nice and so clean. The indoor pool and spa were such an unexpected treat. Hot breakfast incl. Eggs, bacon or sausage depending on the day. Oatmeal/grits bar, fresh fruit, blueberry or plain waffles. Plenty of juices , fresh coffee , water. After a 3 day stay from 7/8/14 to 7/11/14 I can honestly say it was the most comfortable hotel stay I have had in recent years. Beds were very nice. Plenty of towels, and housekeeping really goes out of the way to insure your comfort as well.   We are looking into moving to the Lewisville area, my son specifically wants us to live by Fairfield now. :))More</t>
   </si>
   <si>
+    <t>T1998</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r209259251-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1549,6 +1720,9 @@
     <t>The property is clean and the freshly baked cookies are a nice touch. The hotel is undergoing remodeling. The noise level from the showers of the surrounding rooms was too high. The rooms were clean but very disappointed on the noise level. Their system did not have the updated rooms. Breakfast was acceptable, although tap water would have been nice to have. There is a selection of juices, tea and coffee but I wanted to have water and I could not find it anywhere. For the same amount of money I could have stayed at their sister properties and have a more relaxing night.More</t>
   </si>
   <si>
+    <t>Paul K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r208923233-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1564,6 +1738,9 @@
     <t xml:space="preserve">I have been a loyal Marriott customer for years. This location is going through a remodel and it certainly makes it look nice after the process. My room had already been remodeled and it was outstanding. The updated colors, furniture, and fixtures added a lot. If my travel plans bring me back to the area, I will be at FI again. </t>
   </si>
   <si>
+    <t>amber c</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r197019107-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1591,6 +1768,9 @@
     <t>Stayed overnight in this hotel and I was disappointed to see the front blocked off due to renovations.  Usually hotels with indicate if renovation is going on and had I known this ahead of time I would've chosen a different hotel, however, I tried to keep an open mind since I've stayed at Fairfield Inns before and have had a pleasant stay.I had to park on the side of the building and take a detour as the check in office was in a completely different location...this proved to be a little challenging with the parking and unloading with a toddler in tow.  The rooms were really small.  I felt like my wife, 2 yr old, and I were running into each other constantly and there was nowhere to place our luggage to keep it out of the way.The breakfast was more than I was expecting, however, and I was happy with that but overall I cannot give this hotel a good rating.More</t>
   </si>
   <si>
+    <t>Mur018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r193588741-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1612,6 +1792,9 @@
     <t>We stayed at this property for the weekend. The property is dated but very clean. All the employee's we came in contact with were very friendly. It has went thru a recent redo also. So the rooms are fresh. Fairly new carpet and AC units. Nice fixtures and very compfy chairs. Fridg. and microwave. New flat screens. Lots of channels. Free internet. Free parking. Free breakfast. Don't expect a whole lot, it is the Fairfield level. But we were full and happy. Very nice, allbe it small bathroom and shower, but great water pressure and nice shower head. The sink is outside of the shower and toilet room. We like that. The only con's I will give the hotel is that from some other reviews it was stated that the hot tub water was not hot. We always use this area. The hot tub temp. was only lukewarm at best. And it was in need of cleaning. There was a slight smell.  I called the front desk to ask if the temp could be brought up to normal. She stated that it would be easy and she would have the Maintenance man  turn it up. It never happened. It would be wise for a hotel that has bad reviews on a situation like this that can be easily remedied, to make that easy adjustment. Also, the ice machine on the 3rd. floor did not work and there was no ice...We stayed at this property for the weekend. The property is dated but very clean. All the employee's we came in contact with were very friendly. It has went thru a recent redo also. So the rooms are fresh. Fairly new carpet and AC units. Nice fixtures and very compfy chairs. Fridg. and microwave. New flat screens. Lots of channels. Free internet. Free parking. Free breakfast. Don't expect a whole lot, it is the Fairfield level. But we were full and happy. Very nice, allbe it small bathroom and shower, but great water pressure and nice shower head. The sink is outside of the shower and toilet room. We like that. The only con's I will give the hotel is that from some other reviews it was stated that the hot tub water was not hot. We always use this area. The hot tub temp. was only lukewarm at best. And it was in need of cleaning. There was a slight smell.  I called the front desk to ask if the temp could be brought up to normal. She stated that it would be easy and she would have the Maintenance man  turn it up. It never happened. It would be wise for a hotel that has bad reviews on a situation like this that can be easily remedied, to make that easy adjustment. Also, the ice machine on the 3rd. floor did not work and there was no ice machine on the 2nd. floor. If your looking for a good, clean hotel in this area for under a hundred bucks, then this is the place for you.More</t>
   </si>
   <si>
+    <t>Jenni F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r191738679-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1651,6 +1834,9 @@
     <t>Our family enjoyed our stay at this Fairfield Inn. We asked for and were accommodated with connecting rooms. The kids had their space and TV and mom and dad had their space and TV.  As others have stated, the hotel was clean and quiet. The folks that we spoke with were friendly and helpful. We chose this hotel primarily because of location, breakfast, and the indoor pool. The location was good for us and convenient to shopping and restaurants. We enjoyed the waffles, breakfast sandwiches, and coffee among other offerings at the complimentary breakfast. The kids enjoyed a couple of visits to the pool  the first day we were there. Unfortunately, the next morning there was a "Pool Closed" sign on the door to the pool. I asked how long it would be closed and was told it would be closed a couple of hours due to chemicals being added. I thought this odd that it would be done during the stated pool open hours instead of at night when the pool was closed. It never did reopen which was disappointing for the kids. Upon further inquiry, I was told there was a broken part and they were waiting for someone to fix it. I understand things happen but we were disappointed since one of the reasons we chose this hotel was because of the indoor pool.More</t>
   </si>
   <si>
+    <t>Brittany C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r185235594-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1669,6 +1855,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>filmbuffintexas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r176882847-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1690,6 +1879,9 @@
     <t>I've stayed at another Fairfield Inn in the DFW area, but I must say that I much prefer this one.  Why? As stated above, it has clean, quiet and affordable rooms even though it is close to Interstate 35.  It is also close to the Vista Ridge Mall, great shops and restaurants.  I loved, loved  the fact that it was next to my favorite warehouse club where I was able to shop for Christmas goodies and buy affordable gas!I was especially pleased that i was able to use my Marriott Rewards Points for my two night stay!Directions from DFW Airport:  Exit Airport North, Continue on 121 North (Toll Road), Exit Lake Vista Drive, Left at Lake Vista Drive, The Fairfield Inn is on the Right!More</t>
   </si>
   <si>
+    <t>Melindaclare1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r173792484-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1705,6 +1897,9 @@
     <t>Here for the weekend. Pros: free parking, very good continental breakfast, free wifi, new flat screen and the room is clean. Cons: older property, beds not so comfy and towels are hard and scratchy. It does have a fitness center and indoor pool. For the value it is a good choice.</t>
   </si>
   <si>
+    <t>Drucilla H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r172128202-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1732,6 +1927,9 @@
     <t>The best handicapped accessible hotel room I have stayed in.  Very roomy, clean, comfortable beds.  We had a variety of breakfast choices to select from during breakfast hour. Staff were friendly and courteous to my family.  We were pleased with the location and the service we received.DH, Columbus, Ga.More</t>
   </si>
   <si>
+    <t>Davin D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r168892233-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1759,6 +1957,9 @@
     <t>We picked this hotel because of its location and convenience to everything we needed, It was part of the Marriott Family, and for the price value. One thing we didn't know in advance was that the people there are really friendly, attentive, and are generally concerned about the customer and their needs. I brought a basketball team to the area for a 4 day tournament. It is always an experience when traveling with 10 ball players and their families. We travel a lot and usually stay at a Marriott Family hotel because we can expect to have a certain level of service, amenities, and value. But the people at this hotel were awesome. Which made our stay super enjoyable. Things may break and have to be replaced but this Fairfield will never have to replace their customer service. To sum it up: Great location &amp; Great Customer Service...More</t>
   </si>
   <si>
+    <t>EmCat82</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r166733804-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1783,6 +1984,9 @@
     <t>The room was small but clean. Hotel staff was friendly. My only complaint is we booked this hotel and not a different one because it had a hot tub, but when we went to go in it the water was freezing. We were told it was broke &amp; wasn't going to get fixed during our stay. Huge disappointment.More</t>
   </si>
   <si>
+    <t>Jerdine W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r164757431-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1810,6 +2014,9 @@
     <t>I checked into this hotel after a terrible night at another Hotel in the area. I've stayed in Fairfield Inns before and trusted this location would be just as nice; I was right. It felt so much like I was at home.The room was very large,comfortable and clean with a great view. The Hotel is walking distance to shopping and great restaurants. All the staff were very nice and helpful. Breakfast was great with a large variety of food to choose from. The only concern I had was the Jacuzzi water was in need of changing, but when it was brought to Jeremy's attention he had it cleaned and fresh water placed in it. I highly recommend Fairfield Inn &amp; Suites Lewisville as a great place to relax and enjoy a day in the indoor pool and Jacuzzi.More</t>
   </si>
   <si>
+    <t>Jurody</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r164366597-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1834,6 +2041,9 @@
     <t>We stayed here before and returned because we thought it was a good value in this area.  This trip we had an additional adult with us and were disappointed on the second night of our stay.  We were leaving early Tuesday morning with a u-haul to move our granddaughter to San Antonio and had difficulty sleeping because guests were talking and laughing loudly in the outside area by the pool just under our room between 2 and 3 am.  We called the front desk who said they could do nothing about noise from parking lots not on hotel property.  We explained this was hotel property.  Certainly the pool and the doors to the outside patio should be closed at that hour.  The noise quieted a bit but continued for some time after our call.  I would stay here again but insist on a room away from the pool area. More</t>
   </si>
   <si>
+    <t>Amanda H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r163304583-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1861,6 +2071,9 @@
     <t>We stayed here about a week ago after my husband cashed in his reward points. Upon arrival, Jeremy helped us getting settled in and even called our room throughout our stay to check and see how we were doing. I really enjoyed this Mariott! Very clean rooms, friendly staff and very convenient to nearby restaurants, malls etc...We hope to return again soon. The friendly staff really set this hotel apart from the others. I even called back to find out what type of mattress we slept on to purchase one for myself!More</t>
   </si>
   <si>
+    <t>CoachWill</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r162573666-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1885,6 +2098,9 @@
     <t>Staff was very helpful, courtesy, and professional. Rooms were clean, and all facilities were in working condition. Jeremy Robert made me and my basketball team feel very comfortable and "right at home" Definitely will stay there again.More</t>
   </si>
   <si>
+    <t>Bruno T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r162044967-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1909,6 +2125,9 @@
     <t>I definitely recommend Fairfield Inn Dallas Lewisville.Better than another hotel I stayed at the same area last year.you will have absolutely no complaints about this small hotel.Very good service.More</t>
   </si>
   <si>
+    <t>Marsha H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r159563921-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1936,6 +2155,9 @@
     <t>Had to go to for a business trip and did not know anything about area. The hotel was listed on brochure and was glad they did. Staff was very helpful from extra blankets, to maps  and directions to eating places etc.. The room was great and the breakfast was real good. Always had a helpful attendant. Just like home away from home. I would definitely stay there again if I were in the area.More</t>
   </si>
   <si>
+    <t>ru1390</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r159303620-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1954,6 +2176,9 @@
     <t>I disagree with the one low review. Clean, friendly, attentive service, great value, convenient location. Front end manager Jeremy Robert remembers your name, follows up personally and plain out "gets it." I will stay here again.More</t>
   </si>
   <si>
+    <t>ILikeCheckingBags</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r158071485-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1978,6 +2203,9 @@
     <t>I generally attempt to provide ratings in comparison to other hotels of similar ilk, and this Fairfield was below the 2/3 star standard of the brand.  The hotel seemed to have gone out of its way to select lower quality materials in construction, which gave the place a low end feel.  The breakfast was adequate but made me feel more like I was in a convenience store than at continental breakfast.  While, I respect that each brand and flag provide a different level of breakfast, warming up a Jimmy Dean breakfast sandwich felt more like an activity for a road trip.  The room itself was passable but dated.  The bed comfortable and clean.  The hotel workout facilities and pool (I peeked at them but didn't use them) seemed a bit small.  Ultimately, it is one of the cheaper hotels in the area for the above reasons, so it is providing the right value for the price point, but you might as well get clear focus on what that looks like...that is after all what we are looking for when we jump on TripAdvisor anyway.More</t>
   </si>
   <si>
+    <t>Jane C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r156703803-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2005,6 +2233,9 @@
     <t>At the end of our relocation to Texas we needed a hotel for a week at a reasonable rate.  This Fairfield Inn was perfect.  Great location close to everything including restaurants, shopping and all the highways.  Staff was exceptional in assisting us with directions to get to all the places we needed to go since were new to the area.  They have a shuttle to the airport and local establishments when needed which was nice in a pinch.  Room was very comfortable even for an entire week.More</t>
   </si>
   <si>
+    <t>Kyrasmommy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r155065420-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2029,6 +2260,9 @@
     <t>The beds were comfy, my daughter enjoyed the pool, and the location was perfect, but the main reason I enjoyed my stay was the service.  We checked in on a Friday evening.  After putting our stuff in our room, we came down looking for a snack for my daughter.  Jeremy, at the front desk, actually opened the breakfast pantry and gave her a banana and a yogurt.  Also, he went above and beyond to try and find me a luggage rack.  I do have one question, and this applies to other hotels as well...Why aren't the Disney channels available?  We stay at Marriott brands frequently and that is the first thing my daughter checks.More</t>
   </si>
   <si>
+    <t>buinaba</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r154499957-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2053,6 +2287,9 @@
     <t>I used to stay at Hampton inn, but now its too expensive for what they offer.The Fairfield its in the same area (almost the same block), the room its big, free parking and have breakfast too... so, for a 3* its very good. The furniture its old and the gym forget about it... but i think you receive for what you pay! I was in a business travel and would come back.More</t>
   </si>
   <si>
+    <t>pam l</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r153396140-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2080,6 +2317,9 @@
     <t>This was a great hotel for our soccer team.   Our team was in the area for a College Show case for the weekend.  The hotel staff has our rooms ready as soon as we arrived and were very helpful.  They kept the breakfast area open for our team late so they could sleep in and allowed us to use the breakfast area for lunch and dinner.  They even served our team pizza.  The staff was amazing and very helpful no matter what our request.More</t>
   </si>
   <si>
+    <t>Caren S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r152717593-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2104,6 +2344,9 @@
     <t>Love this hotel and will definitely stay there again if we are in the area!  My family arrived a little later than originally anticipated but a friend had confirmed my reservation when she arrived earlier in the evening.  Once I arrived the front desk got us checked in quickly and quietly! The staff was amazing and that is what made the biggest impression on me! They were helpful, polite and did an excellent job making our volleyball team feel welcome and comfortable! They even hosted a dinner and movie night for our team the second night of our stay!!!! Hotel was also very clean!!!More</t>
   </si>
   <si>
+    <t>DezMama</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r152531676-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2123,6 +2366,9 @@
   </si>
   <si>
     <t>My family and I were looking to get away for the weekend. I used reviews from 'tripadvisor' to choose this hotel, and I'm glad I did! The staff and establishment are great! We enjoyed every staff person we came into contact with (receptionists, breakfast attendants and maids). Our room was clean and comfortable. The pool and spa were clean and enjoyable. Above all, my husband was pleased with the price. We'll stay here again in the future!More</t>
+  </si>
+  <si>
+    <t>Decemberborn</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r152301251-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -2157,6 +2403,9 @@
 My only complaint for the hotel...Loved that this hotel had a free shuttle to/from the airport (DFW). They were very prompt when we scheduled it to leave the next day.When we arrived we were checked in quite quickly and noticed that they had left 2 waters and a lovely hand written note to my daughter. It was quite touching.Room was large enough for 2 persons, beds were comfy. There was plenty of room to walk around. The only complaint I would have for the room is that there was not enough bathroom counter space. We had enough toiletries and towels. Room had a fridge and microwave. When we checked out they asked if everything was great with our stay. I just happened to remember that the toilet seat had slid a little and they sent someone up to fix it right away.When we asked about eating establishments they happened to tell us where they were and even offered to take us to a few. We declined, however we should have taken them up on the offer as the 2 that we wanted to go to were across a 10 or so lane freeway with no overpasses for walking. We had to settle for something a little closer to the hotel. Almost went to Costco which is right outside the hotel but actually went to a real restaurant and had a nice walk back to the hotel.My only complaint for the hotel other than looking a little dated (It was very clean tho!) is that ice is only on the 1st &amp; 3rd floors. We were on the 2nd floor, but the trade off is that we got the so called fitness center on our floor. It was the size of a hotel room with a couple of machines in it. They also had an indoor pool and jacuzzi which I did not use.Breakfast had your usual continental items,with breakfast sandwich you could heat up. I wasn't feeling too good at breakfast so I didn't eat too much, just had a light yogurt and a bowl of cereal. Breakfast room attendant was friendly.More</t>
   </si>
   <si>
+    <t>gary c</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r151846817-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2181,6 +2430,9 @@
     <t>The front desk helped me with my reservation because my administrative assistant made my reservations for the wrong city. They found my res. in central reservations and cancelled wrong one and got me into their hotel. They helped me with directions to church, gave me a bottled water, and left me a hand written letter in my room when I returned offered me their additional support due my high level of stress and sadness. Their warmth and help made me be a lot more relaxed and comforted.Gary CaveyMore</t>
   </si>
   <si>
+    <t>412</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r151106846-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2208,6 +2460,9 @@
     <t>This is a typical Fairfield Inn, showing signs of age but a great staff especially Linda who took care of the breakfast. I chose this hotel due to their free gym passes to LA Fitness next door. The hotel rooms were very clean and did not have any odor with clean bedding. I like how they use a normal blanket on the bed instead of just a thick comforter like Hampton uses. More</t>
   </si>
   <si>
+    <t>Christy064</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r149101518-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2235,6 +2490,9 @@
     <t>My mother-in-law recommended this hotel when I came to visit my friend in Flower Mound during the holidays.  I would have stayed at her house, but she simply did not have room. I couldn't have asked for a better alternative (Actually, I preferred being away from all the hustle and bustle of her very loud family!). This hotel is perfect and the staff is high-quality CLASS. I highly recommend this very comfortable haven to anyone. I was also delighted to learn that they are going to be updating the lobby area which is a little dated (but still very pretty and comfy). Thanks!More</t>
   </si>
   <si>
+    <t>Clarissa L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r145337072-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2262,6 +2520,9 @@
     <t>This was my first trip to Texas and I was treated in such an excellent manor that would have me stay here if I had another opportunity. My first experience was a phone call inquiring about the hotel and shuttle service. This phone call was the entire reason of why I choose to make my reservation the staff was very polite and went out of his way to assist with all my questions.  The staff was so caring and helpful that it made being away from my family easier. My great experience started with the staff at the front desk upon check in; the Halloween gift sack; the personal letter waiting for me in my room to my check out and shuttle to the DART train ride back to Love Field Airport. Thank you so much for the caring and friendly atmosphere!! It was GREAT!! CSS Manager Clarissa LarsenMore</t>
   </si>
   <si>
+    <t>EagleEye2020</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r144324075-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2286,6 +2547,9 @@
     <t>The company I represent is rapidly growing.  We needed a central location for Collin and Denton counties to conduct interviews.  Fairfield Inn Dallas Lewisville was highly recommended for their ability to meet our needs.  After our experience I must say, the staff of Fairfield Inn met all of our expectations and needs with professional and courteous service.  The General Manager and his staff did an exceptional job making sure the conference room was set up with the appropriate equipment and refreshments.  Also, they greeted our candidates and made them feel welcomed and comfortable prior to their interviews.  Throughout the day the Fairfield Inn staff provided excellent communication and outstanding service to our staff and candidates.  It was a positive experience and we will use the accommodations and services of Fairfield Inn Dallas Lewisville going forward for all our recruiting and interviewing location needs.More</t>
   </si>
   <si>
+    <t>DHP6666</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r144250628-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2310,6 +2574,9 @@
     <t>We came to the Dallas area for Ruth to attend a Miche Bag meeting.  But since Ruth had had a birthday just the week before, we thought we would celebrate a bit.  We had a lovely room at the Fairfield and were greeted with warm faces and also warm cookies!  There were plenty of eating establishments close and that was nice because it turned out to be a rainy weekend.  Since the pool was inside, that was nice, too.We had a nice breakfast both mornings and were on our wayThanks for a nice time!Dennis and Ruth PhillipsMore</t>
   </si>
   <si>
+    <t>Leann71</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r144216272-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2325,6 +2592,9 @@
     <t>I had a little transportation mix up and confusion getting to the hotel from the airport BUT the staff at this Fairfield went above and beyond to help me.  And the fantastic customer service didn't end the night I arrived, they were fantastic the whole week. Any time I 'needed' something, the response of the staff was very quick. I will be returning for business two more times and will definitely consider this hotel in the future!  Thanks so much everybody!!More</t>
   </si>
   <si>
+    <t>Al M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r144185339-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2349,6 +2619,9 @@
     <t>Our stay was definitely excellent in all respects.  After registering I took the baggage cart out to bring the luggage from the car to our room.  As I entered the front door one of the Registration Desk staff came out and took the cart from me and brought it to our room.   Which allowed me to go out and park the car.  My wife has mobility problems so this was very helpful, completely unexpected, and very helpful.  The room was very comfortable and breakfast was fine.  After checking out I discovered I had a flat tire.  I went in to ask that someone at the desk call a service station to help change the tire.  The Manager went out with me to the car and replaced the flat tire with the spare.  All in all we could not have asked for a more enjoyable stay and a more helpful staff.  To the staff we want to say "You are the best!"More</t>
   </si>
   <si>
+    <t>jTaylor_Littleton</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r143619168-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2376,6 +2649,9 @@
     <t>I've been staying at the Fairfield- Lewisville for the last 5+ years while traveling on business and have had consistently good experiences.  The last visit was a great example of how the staff will bend over backwards to make sure their customers are taken care of.  Apparently they had a full house two nights in a row and had run out of USA Today newspapers the following morning.  I LOVE the puzzle section of the USA Today and when I didn't get my puzzle fix two mornings in a row, I was very disappointed.  Realizing how disappointed I was, the hotel staff sent someone out to buy me a puzzle book and had it waiting in my room when I returned from my meetings.  I was so surprised!  No hotel has ever done anything like that for me!  I really appreciate that they went out of their way to take care of my needs.More</t>
   </si>
   <si>
+    <t>Braden D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r143437348-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2400,6 +2676,9 @@
     <t>We recently held a 3 day business meeting here (spook-tacular) and as always the staff was great.  David worked hard to get us the rooms we needed as we had 6 attendees staying overnight.   The hotel wants to make sure our stay is as pleasant as possible and went right to work on any requests we had, which we had several!! Including some that are a little strange...for instance Kita at the front desk was gracious enough to be a blind judge for our pumpkin decorating contest!  Now that doesn't happen everyday! Don't hesitate to stay here.More</t>
   </si>
   <si>
+    <t>Alan B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r142432117-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2424,6 +2703,9 @@
     <t>Jeremy, I want to compliment you on the great staff you have at this property.  I travel often and up until this year have been Platinim with the Marriott.  Even as a Platinum member my reception at many of the properties was often lukewarm at best.  That wasn't the case with your crew.  I was welcomed as a Marriott Rewards member, checked in and offered a bottlle of water and a snack.  In my coming and going, I was always welcomed back and was engaged in conversation.In traveling often, the worst, very worst thing you can do is have a bad travel experience, on the plane, the rental car place or the hotel.  It is so appreciated when you are felt welcome, it makes the trip that much better.  I spent 2 nights at your property then went to Houston for business for a few days, and when coming back, it was a no-brainer to stay again at your property.  The treatment I received endears your staff to me and I feel a sense of loyalty.Jeremy, thank your staff for me.  It would serve Marriott to use this crew to show other Fairfield properties, that it only takes a little effort to make a guest's stay memorable.  Thanks to all of you.More</t>
   </si>
   <si>
+    <t>sbrandon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r141590170-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2448,6 +2730,9 @@
     <t>We are currently visiting for an NCAA basketball exposure tournament in Dallas.  The staff has been amazing.  Warm cookies, coffee all day, very clean property.  Polite, courteous, bend-over backwards southern hospitality here.  Definitely stay again.More</t>
   </si>
   <si>
+    <t>Peter S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r141501089-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2472,6 +2757,9 @@
     <t>Stayed briefly, for just two nights, at the Fairfield Inn by Marriot Dallas Lewisville.Arriving late, unscheduled and disheveled after 8 plus hours on the road, Kita, at the front desk, was most accomodating in quickly finding a room -- allowing me to get on my way.  The room was pristine, smelled fresh and ready for rest -- as was I!The next morning, David, also at the front desk, was most helpful in lining up a shuttle to a clinic where I was having tests done.  En route, I encountered a friendly and knowledgable Felix, and the two us of talked of many things while driving.  I felt I was connecting with an old friend -- a great way to start my morning.What a great place to stay: Great accomodations with a warm, friendly and knowledgable staff.  I endorse this location and staff without equivocation, and will be back when next in Dallas.Thank you.Peter StevensSt. Louis, MissouriMore</t>
   </si>
   <si>
+    <t>gloria p</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r141234538-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2496,6 +2784,9 @@
     <t>Our company had a group staying at the Fairfield Inn Dallas-Lewisville in September 2012.  I have to say I was pleasantly surprised by the level of service we received.  I never thought of the Fairfield as a meeting hotel, but found this Fairfield to be very in tune with needs of a corporate meeting group.  The hotel was spotless, they left notes in our rooms regarding our airport transfers, breakfast each day was well stocked and stayed that way through out the morning.  They even assisted us with transportation to restaurants for dinner!  The front desk team was quick to respond to any questions or concerns that we had.  From the general manager, David L. to the front desk manager, Jeremy it was obvious that customer service was a priority. Thanks to David and the team for the great service.More</t>
   </si>
   <si>
+    <t>rocknrollgal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r141170651-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2514,6 +2805,9 @@
     <t>Every year for 40 some odd years my company has taken a group of 40 or 50 people down for OU/TX weekend. I picked this hotel because of it's location and amenites. Boy was I surprised that this hotel is not just a typical Fairfield. The rooms are not only clean they are sparkeling clean, the lobby area is just as clean and is well lighted and the chairs are nice and comfortable if you have to wait to check in. There are signs posted that tell you where the vending and ice machines are and they are not just posted in one spot. The refrigerator is bigger than just a "dorm" size refrigerator and the microwave is easy to use. What I liked most besides by comfortable bed was the free wi-fi and the fluffy pillows. The staff is so easy to talk to and if you miss a turn and need directions they are ready to guide you in. Check in was a breeze even at 11pm at night. The guest services lady even looked up by Marriott Rewards number so I could  get my points. I didn't eat breakfast the next day because I liked to sleep in but I did get a look at the wide selection that they offered. The pool is nice and clean and the meeting rooms are spacious. The front desk people don't ever get tired of answering questions and believe me...Every year for 40 some odd years my company has taken a group of 40 or 50 people down for OU/TX weekend. I picked this hotel because of it's location and amenites. Boy was I surprised that this hotel is not just a typical Fairfield. The rooms are not only clean they are sparkeling clean, the lobby area is just as clean and is well lighted and the chairs are nice and comfortable if you have to wait to check in. There are signs posted that tell you where the vending and ice machines are and they are not just posted in one spot. The refrigerator is bigger than just a "dorm" size refrigerator and the microwave is easy to use. What I liked most besides by comfortable bed was the free wi-fi and the fluffy pillows. The staff is so easy to talk to and if you miss a turn and need directions they are ready to guide you in. Check in was a breeze even at 11pm at night. The guest services lady even looked up by Marriott Rewards number so I could  get my points. I didn't eat breakfast the next day because I liked to sleep in but I did get a look at the wide selection that they offered. The pool is nice and clean and the meeting rooms are spacious. The front desk people don't ever get tired of answering questions and believe me at 11p at night I had alot of questions about where my group was going to stay. The Fairfield has a shuttle that will take you to the Mall if you want to go and the times are posted in a space where everybody can see it. The icing on the cake was when I checked out they were just as pleasant and nice as they had been at 11pm a night. Even when they are giving directions to Olive Garden (I'm sure they've done that a thousand times!!!) the smile on the face and the warmth in the voice never wavers. I would like to say to all who work for the Fairfield in Lewisville, OUTSTANDING JOB!! You can tell you like what you do otherwise that place would not be running like a well oiled machine!More</t>
   </si>
   <si>
+    <t>Aron S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r140859772-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2538,6 +2832,9 @@
     <t>I originally had no choice in hotel as my company set up reservations for me. I stayed for 4 nights and could not have been happier with my room and the staff. I slept great and the rooms where very clean. The location was great for when my evenings freed up. There are several great places nearby to grab a cocktail and a good bite. The continental breakfast was fresh and bountiful. Again the staff was incredibly kind and helpful. They have a shuttle that will take you anywhere within 5 miles so I did not even bother to rent a car. I will be returning to Dallas in two weeks and this time around I need to make reservations at a hotel of my choice. It is nice to not have to hunt around, I will be coming back.More</t>
   </si>
   <si>
+    <t>Hillay2001</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r140460358-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2565,6 +2862,9 @@
     <t>Our company had a group of about 30 guests stay at the Fairfield Inn Dallas Lewisville in early August 2012 and had an amazing time.  All the rooms were clean, updated, and very much enjoyed.  David L. was just spectacular to work with while we planned our event.  His hospitality truly made our experience top notch.  We held our company meeting there and their meeting space was perfect.  Kita was on duty when we checked in and was very sweet and personable in making sure everything was perfect for us.  Preston was another employee who was extremely helpful when I needed to borrow a DVD player at the last minute to check the function of some DVDs I was making for our meeting the next day.  And last but not least, Linda, the nice lady who was serving breakfast each morning of our stay just did a fabulous job for us.  We will not forget our experience here and if we are to ever return to the area, we will definitely be staying at the Fairfield Inn in Lewisville.More</t>
   </si>
   <si>
+    <t>TEDEHISA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r140423780-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2580,6 +2880,9 @@
     <t>Very nice place,clean convenient a little confusing to get back to upon returning, but overall it was very nice comfortable beds. We stayed on 2nd floor. Will stay here again in the future, even though they sent a letter saying the September 3,2012 labor day holiday wouldn't allow for room service, housekeeper still came by to check on us.More</t>
   </si>
   <si>
+    <t>jransluvmy5</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r139392402-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2602,6 +2905,9 @@
   </si>
   <si>
     <t>My husband and I stayed in the double queen room for 2 nights with our kids 1, 6, and 11.  We arrived at the hotel early and our room was already ready and we were able to check in with no problems.  It was clean and didn't have any weird smells or anything like that.  I was surprised at the size of the room, it was big enough for all of us without stepping on one another. The refrigerator was bigger than I expected as well.  We were able to put in a gallon of milk, about 20-20 oz waters, condiments and a gallon bag of ice with plenty of room to spare.  There was a nice size table holding a coffee maker and it stored everything that didn't need to be kept cold with enough room to make a sandwich while someone else was sitting and eating.  Microwave worked great for leftovers.  The beds were comfortable and we had plenty of pillows.  There was also a chair and ottomon in the room big enough for my 6 year old to sleep on. The big flatscreen TV was nice and my husband really enjoyed the curved shower rod which made a big difference in shower space.  The indoor pool and hot tub were very clean.  Continental breakfast was great.  They had something for everyone in my picky family.  Waffles, plain bagles, raisin bagles, apple cinnamon muffins, blueberry cheesecake muffins, pretty...My husband and I stayed in the double queen room for 2 nights with our kids 1, 6, and 11.  We arrived at the hotel early and our room was already ready and we were able to check in with no problems.  It was clean and didn't have any weird smells or anything like that.  I was surprised at the size of the room, it was big enough for all of us without stepping on one another. The refrigerator was bigger than I expected as well.  We were able to put in a gallon of milk, about 20-20 oz waters, condiments and a gallon bag of ice with plenty of room to spare.  There was a nice size table holding a coffee maker and it stored everything that didn't need to be kept cold with enough room to make a sandwich while someone else was sitting and eating.  Microwave worked great for leftovers.  The beds were comfortable and we had plenty of pillows.  There was also a chair and ottomon in the room big enough for my 6 year old to sleep on. The big flatscreen TV was nice and my husband really enjoyed the curved shower rod which made a big difference in shower space.  The indoor pool and hot tub were very clean.  Continental breakfast was great.  They had something for everyone in my picky family.  Waffles, plain bagles, raisin bagles, apple cinnamon muffins, blueberry cheesecake muffins, pretty much any cereal you could think of, oatmeal, hard boiled eggs, yogurt, fruit cups, bacon egg and cheese biscuits, pancake on a stick, apple and orange juice, hot choclate and of course coffee.  There was a weight room on the second floor.  I didn't go to it, but it was nice that it was there.  The neighborhood seemed good, several other hotels on the same street, not many houses if any.  The staff was very curteous and accomodating, especially the staff helping with breakfast.  After the first night, we were out of towels and had to call down to see if they came to get the laundry when you stay more than one night.  We were advised that they normally dont, but they would.  We left and came back to new bed linnens, emptied trash, and clean towels and sink area. Cons:  There were only 4 towels in the room even though we booked for 5 people.  One of the towels had to be put down on the bathroom floor so we didn't slip when getting out of the shower because the tile was very slick when it was wet.  That left only 3 usable towels for 5 people.  We did have to ask for towels about 5-6 times during our stay.  If you went to the pool, you could ask for towels from the front desk and they...More</t>
+  </si>
+  <si>
+    <t>TheTexasWanderer</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r133871602-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -2637,6 +2943,9 @@
 The teens staying at the hotel...My family and I spent this past weekend there, which unfortunately coincided with a youth sports tournament. Prior to our arrival, several family members called inquiring about additional rooms (we had reserved a block of 10, but not all had yet been paid for) and every call resulted in frustration on all sides. Even the general manager wasn't well informed, and in the end, several family members ended up sharing rooms because we had been told in advance all rooms were booked out, though upon arrival, 4 of our reserved rooms hadn't been booked. There were problems checking in (our rooms were paid for by someone else, but our names were on the invoice as well. Ended up waiting 3+ hours for the card holder's flight to land and his arrival at the hotel before being allowed to unload).Complimentary breakfast included frozen Eggo waffles (thawed in their display case), frozen sausage/bacon egg and cheese sandwiches, english muffins, bagels, muffins, cold cereal and instant oatmeal, as well as single serve packages of yogurt, fruit, and milk. Being someone who doesn't eat meat, and tries to avoid dairy as well as excessive preservatives, I'm glad I prepared plenty of food at home and was able to use their toaster to warm up homemade blueberry waffles each morning. Yes, they offered a variety of carbs and some fruit, but nothing was fresh, which I found disappointing.The teens staying at the hotel were out of control. They were in and out of the pool frequently, leaving large puddles of water all through the first floor of the building, which was especially unsafe on the tile floor of the lobby. We could see the staff trying hard to keep up with the puddles, however speaking to the chaperones about respecting the rules would have likely gone a long way in preventing this mess in the first place. The kids ran up and down the corridors into the early morning hours, slamming doors and stomping loudly enough to wake up at least one baby, who then began screaming from midnight to nearly 1am. It is the responsibility of the chaperones to control their group, however it appeared that the hotel staff made little effort to require such control from these guests. Thankfully they were much more calm the second night of their stay.The pool was over-chlorinated. Even though I showered immediately after leaving the pool, my face remained bright red and hot for several hours. Even after a thorough washing, my swimsuit and coverup also still reek of chlorine.Aside...More</t>
   </si>
   <si>
+    <t>Terry O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r130608320-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2664,6 +2973,9 @@
     <t>We traveled to Dallas for medical reasons and were just delighted with our choice of hotel.  The front desk attendant,Amanda, made our stay just wonderful.  She arranged our transportation, wake up calls, gave directions and personal choices for eating.  Wow!  It was all great.  Our room was clean when we arrived and housekeeping did a great job keeping it up for us while we were away during the day.  Breakfast had a great variety to choose from.  The shuttle was on time and available for all out needs.  the pool area is clean and quiet, with fresh towels easily attainable.  all this at a GREAT price!  Thanks again to the staff!!!!!!!!!!!!!!!!!More</t>
   </si>
   <si>
+    <t>atravelingnana</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r124392802-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2685,6 +2997,9 @@
     <t>We stayed here for 3 days.  The cons:The room decor was tired and sparse.  There was no luggage rack, the upholstered chair was stained, and one thin blanket on the bed was not enough (there were no extra blankets or pillows in the room).  We had to go downstairs to ask for shampoo as there was only conditioner in the room...and apparently 1 bottle was to be enough as nothing, not even the soap, was ever replaced..  The toilet didn't flush properly, and despite asking that it be fixed...it wasn't.  My husband finally was able to make it work ok.The pros: The room was clean.  The breakfast buffet had a variety of items although no cook-it-yourself waffles or pancakes.  Lots of different microwavable items plus the standard ceral, fruit, oatmeal, bagels, etc.We have stayed at other hotels in the area with comparable rates, and we won't be back here again.More</t>
   </si>
   <si>
+    <t>Wes_Dingman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r122110275-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2706,6 +3021,9 @@
     <t>We arrived quite late, after 12:30 AM, and Mr. Quiles, and Mr. Quiles, welcomed us warmly. Our children had been in the car for five hours, having spent much of that time waiting in a line of cars to view Prairie Lights. By the time we got to the hotel, everyone was exhausted. Mr. Quiles got us checked in promptly, and then offered to get out some breakfast food for us in case our children were hungry. While we did not need much, we definitely appreciated the gesture. He graciously filled a couple of cups with orange juice and gave us some yoghurt.We had to get up early to go to DFW. I asked Mr. Quiles to call our room at 3:30, but we woke up before the call, so I phoned Mr. Quiles to cancel the call. He immediately offered to make coffee for my wife and me and lay out breakfast, even though it was not supposed to begin for a couple of more hours at least. While we did not have time to eat, we did accept some fruit which Mr. Quiles also generously offered.We could not be more appreciative for the excellent service we were given.More</t>
   </si>
   <si>
+    <t>firetiger</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r121990600-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2722,6 +3040,9 @@
   </si>
   <si>
     <t>Stayed at this hotel on Monday night. Hotel was not very busy. Was visiting relatives in Carrollton &amp; was only 5 minute drive away. Great location as 1 minute to vista ridge mall and nice restaurants. Easy access by car via I35. Hotel is far enough from highways that road noise is not noticeable . Hotel is pretty well maintained &amp; location is less than 10 yrs old. They do have an indoor pool but we did not use it. It looked maintained. Breakfast was comp. &amp; about avg. ( cereal,boiled eggs , but they did have breakfast sandwiches that were microwaveable).Coffe was extra strong, not so good, but coffee makers in room . I really had no major issues. Only one thing I noticed was when we came back to hotel, the staff was outside smoking. They did go back to " man desk" but the smell of cigarette smoke had filtered into lobby. Beds were avg comfort, plenty of pillows. Everything worked in room, local cable on flat screen tv. All &amp; all a good stay, as rates are usually in $70-$85 per night range. Would not want to pay much more as it was really just avg on comfort. Very nice area around hotel &amp; did not feel security was an issue.More</t>
+  </si>
+  <si>
+    <t>Nittany&amp;Fargo</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r117397043-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -2755,6 +3076,9 @@
 The breakfast was a perfectly fine...As a business traveler, I rarely seem room rates below $100/night anymore, so I was very pleasantly surprised at the value I received at this Fairfield Inn.  I stayed for two nights on business.  The hotel is less than a block from the highway, and less than 20 minutes from DFW, even with some traffic.  At check-in, the desk clerk was very helpful with providing suggestions for dinner.  Check-in was quick and easy.My room was like a scaled down Courtyard (e.g., same closet, but no door on the closet).  In fact, in some respects, it was better than a few Courtyards I have stayed in recently.  The Fairfield had a refrigerator and microwave in the room and a complimentary breakfast.  My room had two queen beds.  The bed was quite comfortable.  There was also a new flat-screen Phillips TV.  The room was super clean and everything was in working order.  Even the shampoo was better than I had expected (Pantene).  My room was very quiet, and the air conditioning unit (although old) worked like a champ.For me, I absolutely must work out every morning, and I was pleasantly surprised to find a small fitness room with 2 treadmills and a Precor elliptical.  Even better, the fitness room was open 24/7, which was priceless for me since I had an early morning flight on Friday (but still wanted to squeeze in a workout).  The breakfast was a perfectly fine expanded continental breakfast.  The pastries/breads were quite fresh and there was a nice selection of fruits, cereals, and yogurts.  I ate at BJs Brewhouse, across the parking lot from the Costco.  While the microbrew beer and service were good, I was underwhelmed with the food.  However, certainly not a bad option if you are just looking for a place to walk to.  The night manager at the Fairfield was super friendly; I wish I had gotten his name (he was originally from Brooklyn).  Although there is a Hampton and Hilton Garden Inn located nearby, I can't see paying more when the Fairfield had everything I needed.  There was even a small indoor pool.More</t>
   </si>
   <si>
+    <t>peglyj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r111880350-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2776,6 +3100,9 @@
     <t>We got stuck in Dallas on May 23...no help from AA to find hotel, car or flight.  After checking with approx 8 hotels with no rooms available I spoke with a ver nice helpful young lady at a Marriott Hotel.  This particular hotel did not have a room for us but the young lady searched the other Marriott properties and found us a room at the Fairfield Inn in Lewisville Texas.  None of the other hotels I called offered to do that for us.  (I used the directory that the airport has on the courtesy phone area.)  She apologized that since it was after 9:00 pm the shuttle from the hotel was closed so we would have to take a cab to the hotel.     FYI the cab was 33.00 + a tip.  We were greeted by a very nice helpful clerk.  The room was very clean and we would defineatly stay here again.  The breakfast area was clean and there was a good choice of food.  The people on duty in the morning were just as nice and helpful.  I had to mail a package to my home that I could not carry on the plane and the GM offered to take me to a store so I could mail my package.  Awesome people.  Thanks for all the helpMore</t>
   </si>
   <si>
+    <t>teds300</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r99843874-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2794,6 +3121,9 @@
     <t>February 2011</t>
   </si>
   <si>
+    <t>Paul M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r80317216-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2812,6 +3142,9 @@
     <t>September 2010</t>
   </si>
   <si>
+    <t>msmoore85</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r38356868-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2830,6 +3163,9 @@
     <t>July 2009</t>
   </si>
   <si>
+    <t>capDumas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r15149368-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2846,6 +3182,9 @@
   </si>
   <si>
     <t>April 2008</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223850-r4318970-Fairfield_Inn_Suites_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -3401,43 +3740,47 @@
       <c r="A2" t="n">
         <v>41220</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>18833</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -3453,56 +3796,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>41220</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>136509</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -3520,56 +3867,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>41220</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>136510</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
@@ -3587,56 +3938,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>41220</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>136511</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -3654,56 +4009,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="X5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Y5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>41220</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>11423</v>
+      </c>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" t="s">
+        <v>92</v>
+      </c>
+      <c r="J6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" t="s">
+        <v>94</v>
+      </c>
+      <c r="L6" t="s">
+        <v>95</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" t="s">
         <v>86</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K6" t="s">
-        <v>89</v>
-      </c>
-      <c r="L6" t="s">
-        <v>90</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>81</v>
-      </c>
-      <c r="O6" t="s">
-        <v>82</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -3721,56 +4080,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="X6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="Y6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>41220</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>42539</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="J7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="L7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="O7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3782,56 +4145,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="X7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="Y7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>41220</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>136512</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="O8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -3849,56 +4216,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="X8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="Y8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>41220</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>99530</v>
+      </c>
+      <c r="C9" t="s">
+        <v>119</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="J9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="K9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="O9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3910,47 +4281,51 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="X9" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="Y9" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>41220</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>8403</v>
+      </c>
+      <c r="C10" t="s">
+        <v>130</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="J10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="K10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="L10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
@@ -3967,56 +4342,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="X10" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="Y10" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>41220</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>136513</v>
+      </c>
+      <c r="C11" t="s">
+        <v>139</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="J11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="K11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="L11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="O11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -4028,56 +4407,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="X11" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="Y11" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>41220</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>13602</v>
+      </c>
+      <c r="C12" t="s">
+        <v>149</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="J12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="K12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -4089,56 +4472,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="X12" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="Y12" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>41220</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>30359</v>
+      </c>
+      <c r="C13" t="s">
+        <v>159</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="J13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="K13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="L13" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="O13" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -4154,47 +4541,51 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="X13" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="Y13" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>41220</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>136514</v>
+      </c>
+      <c r="C14" t="s">
+        <v>169</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="J14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="K14" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="L14" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
@@ -4211,56 +4602,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="X14" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="Y14" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>41220</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>6805</v>
+      </c>
+      <c r="C15" t="s">
+        <v>178</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="J15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="K15" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="L15" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="O15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -4276,56 +4671,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="X15" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="Y15" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>41220</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>136515</v>
+      </c>
+      <c r="C16" t="s">
+        <v>188</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="J16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="K16" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="L16" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="O16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -4337,56 +4736,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="X16" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="Y16" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>41220</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>4349</v>
+      </c>
+      <c r="C17" t="s">
+        <v>197</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="J17" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="K17" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="L17" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="O17" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -4398,41 +4801,45 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="X17" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="Y17" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>41220</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>23415</v>
+      </c>
+      <c r="C18" t="s">
+        <v>206</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="J18" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="K18" t="s"/>
       <c r="L18" t="s"/>
@@ -4448,51 +4855,52 @@
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
-      <c r="Y18" t="s"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>41220</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>67340</v>
+      </c>
+      <c r="C19" t="s">
+        <v>210</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="J19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="K19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="L19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="O19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -4508,56 +4916,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="X19" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="Y19" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>41220</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>136516</v>
+      </c>
+      <c r="C20" t="s">
+        <v>220</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="J20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="K20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="L20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="O20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -4569,56 +4981,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="X20" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="Y20" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>41220</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>136517</v>
+      </c>
+      <c r="C21" t="s">
+        <v>229</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="J21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="K21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="L21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="O21" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -4634,56 +5050,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="X21" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="Y21" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>41220</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>136518</v>
+      </c>
+      <c r="C22" t="s">
+        <v>239</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="J22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="K22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="L22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="O22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P22" t="n">
         <v>3</v>
@@ -4701,56 +5121,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="X22" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="Y22" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>41220</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>460</v>
+      </c>
+      <c r="C23" t="s">
+        <v>249</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="J23" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="K23" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="L23" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="O23" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -4768,56 +5192,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="X23" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="Y23" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>41220</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>136519</v>
+      </c>
+      <c r="C24" t="s">
+        <v>259</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="J24" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="K24" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="L24" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="O24" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4829,56 +5257,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="X24" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="Y24" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>41220</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>136520</v>
+      </c>
+      <c r="C25" t="s">
+        <v>268</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="J25" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="K25" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="L25" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="O25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4896,56 +5328,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="X25" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="Y25" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>41220</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>136521</v>
+      </c>
+      <c r="C26" t="s">
+        <v>274</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="J26" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="K26" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="L26" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="O26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4957,56 +5393,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="X26" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="Y26" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>41220</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>136522</v>
+      </c>
+      <c r="C27" t="s">
+        <v>284</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="J27" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="K27" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="L27" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="O27" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -5018,56 +5458,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="X27" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="Y27" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>41220</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>136523</v>
+      </c>
+      <c r="C28" t="s">
+        <v>290</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="J28" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="K28" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="L28" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="M28" t="n">
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="O28" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -5079,56 +5523,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="X28" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="Y28" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>41220</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>136524</v>
+      </c>
+      <c r="C29" t="s">
+        <v>299</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="J29" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="K29" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="L29" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="O29" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P29" t="n">
         <v>3</v>
@@ -5146,56 +5594,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="X29" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="Y29" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>41220</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>136525</v>
+      </c>
+      <c r="C30" t="s">
+        <v>308</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="J30" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="K30" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="L30" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="O30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -5213,56 +5665,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="X30" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="Y30" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>41220</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>136526</v>
+      </c>
+      <c r="C31" t="s">
+        <v>318</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="J31" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="K31" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="L31" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="O31" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="n">
@@ -5280,56 +5736,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="X31" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="Y31" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>41220</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>136527</v>
+      </c>
+      <c r="C32" t="s">
+        <v>328</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="J32" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="K32" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="L32" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="O32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="n">
@@ -5345,56 +5805,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="X32" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="Y32" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>41220</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>136528</v>
+      </c>
+      <c r="C33" t="s">
+        <v>338</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="J33" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="K33" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="L33" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="O33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P33" t="n">
         <v>3</v>
@@ -5410,56 +5874,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="X33" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="Y33" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>41220</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>136529</v>
+      </c>
+      <c r="C34" t="s">
+        <v>347</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="J34" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="K34" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="L34" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="O34" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -5471,47 +5939,51 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="X34" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="Y34" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>41220</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>136530</v>
+      </c>
+      <c r="C35" t="s">
+        <v>356</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="J35" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="K35" t="s">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="L35" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
@@ -5528,56 +6000,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="X35" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="Y35" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>41220</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>136531</v>
+      </c>
+      <c r="C36" t="s">
+        <v>365</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="J36" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="K36" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="L36" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -5589,56 +6065,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="X36" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="Y36" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>41220</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>364</v>
+      </c>
+      <c r="C37" t="s">
+        <v>375</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="J37" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="K37" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="L37" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="O37" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -5650,47 +6130,51 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="X37" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="Y37" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>41220</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>136532</v>
+      </c>
+      <c r="C38" t="s">
+        <v>385</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="J38" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="K38" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="L38" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
@@ -5707,56 +6191,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="X38" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="Y38" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>41220</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>136533</v>
+      </c>
+      <c r="C39" t="s">
+        <v>394</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="J39" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="K39" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="L39" t="s">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="M39" t="n">
         <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>362</v>
+        <v>400</v>
       </c>
       <c r="O39" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5768,47 +6256,51 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
       <c r="X39" t="s">
-        <v>364</v>
+        <v>402</v>
       </c>
       <c r="Y39" t="s">
-        <v>365</v>
+        <v>403</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>41220</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>11506</v>
+      </c>
+      <c r="C40" t="s">
+        <v>404</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="J40" t="s">
-        <v>368</v>
+        <v>407</v>
       </c>
       <c r="K40" t="s">
-        <v>369</v>
+        <v>408</v>
       </c>
       <c r="L40" t="s">
-        <v>370</v>
+        <v>409</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
@@ -5825,56 +6317,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>371</v>
+        <v>410</v>
       </c>
       <c r="X40" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
       <c r="Y40" t="s">
-        <v>373</v>
+        <v>412</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>41220</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>1265</v>
+      </c>
+      <c r="C41" t="s">
+        <v>413</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="J41" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="K41" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="L41" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>379</v>
+        <v>419</v>
       </c>
       <c r="O41" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -5892,56 +6388,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="X41" t="s">
-        <v>381</v>
+        <v>421</v>
       </c>
       <c r="Y41" t="s">
-        <v>382</v>
+        <v>422</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>41220</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>39392</v>
+      </c>
+      <c r="C42" t="s">
+        <v>423</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>384</v>
+        <v>425</v>
       </c>
       <c r="J42" t="s">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="K42" t="s">
-        <v>386</v>
+        <v>427</v>
       </c>
       <c r="L42" t="s">
-        <v>387</v>
+        <v>428</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>388</v>
+        <v>429</v>
       </c>
       <c r="O42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5953,56 +6453,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>389</v>
+        <v>430</v>
       </c>
       <c r="X42" t="s">
-        <v>390</v>
+        <v>431</v>
       </c>
       <c r="Y42" t="s">
-        <v>391</v>
+        <v>432</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>41220</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>136534</v>
+      </c>
+      <c r="C43" t="s">
+        <v>433</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="J43" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
       <c r="K43" t="s">
-        <v>395</v>
+        <v>437</v>
       </c>
       <c r="L43" t="s">
-        <v>396</v>
+        <v>438</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>397</v>
+        <v>439</v>
       </c>
       <c r="O43" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="n">
@@ -6020,56 +6524,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>398</v>
+        <v>440</v>
       </c>
       <c r="X43" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="Y43" t="s">
-        <v>400</v>
+        <v>442</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>41220</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>136535</v>
+      </c>
+      <c r="C44" t="s">
+        <v>443</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>402</v>
+        <v>445</v>
       </c>
       <c r="J44" t="s">
-        <v>403</v>
+        <v>446</v>
       </c>
       <c r="K44" t="s">
-        <v>404</v>
+        <v>447</v>
       </c>
       <c r="L44" t="s">
-        <v>405</v>
+        <v>448</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>397</v>
+        <v>439</v>
       </c>
       <c r="O44" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -6081,56 +6589,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>398</v>
+        <v>440</v>
       </c>
       <c r="X44" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="Y44" t="s">
-        <v>406</v>
+        <v>449</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>41220</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>136536</v>
+      </c>
+      <c r="C45" t="s">
+        <v>450</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>408</v>
+        <v>452</v>
       </c>
       <c r="J45" t="s">
-        <v>409</v>
+        <v>453</v>
       </c>
       <c r="K45" t="s">
-        <v>410</v>
+        <v>454</v>
       </c>
       <c r="L45" t="s">
-        <v>411</v>
+        <v>455</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>397</v>
+        <v>439</v>
       </c>
       <c r="O45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -6142,56 +6654,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>412</v>
+        <v>456</v>
       </c>
       <c r="X45" t="s">
-        <v>413</v>
+        <v>457</v>
       </c>
       <c r="Y45" t="s">
-        <v>414</v>
+        <v>458</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>41220</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>136537</v>
+      </c>
+      <c r="C46" t="s">
+        <v>459</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>415</v>
+        <v>460</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>416</v>
+        <v>461</v>
       </c>
       <c r="J46" t="s">
-        <v>417</v>
+        <v>462</v>
       </c>
       <c r="K46" t="s">
-        <v>418</v>
+        <v>463</v>
       </c>
       <c r="L46" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>420</v>
+        <v>465</v>
       </c>
       <c r="O46" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -6207,56 +6723,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>398</v>
+        <v>440</v>
       </c>
       <c r="X46" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="Y46" t="s">
-        <v>421</v>
+        <v>466</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>41220</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>8300</v>
+      </c>
+      <c r="C47" t="s">
+        <v>467</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>422</v>
+        <v>468</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>423</v>
+        <v>469</v>
       </c>
       <c r="J47" t="s">
-        <v>424</v>
+        <v>470</v>
       </c>
       <c r="K47" t="s">
-        <v>425</v>
+        <v>471</v>
       </c>
       <c r="L47" t="s">
-        <v>426</v>
+        <v>472</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>427</v>
+        <v>473</v>
       </c>
       <c r="O47" t="s">
-        <v>428</v>
+        <v>474</v>
       </c>
       <c r="P47" t="n">
         <v>4</v>
@@ -6276,50 +6796,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>426</v>
+        <v>472</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>41220</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>136538</v>
+      </c>
+      <c r="C48" t="s">
+        <v>475</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>429</v>
+        <v>476</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>430</v>
+        <v>477</v>
       </c>
       <c r="J48" t="s">
-        <v>431</v>
+        <v>478</v>
       </c>
       <c r="K48" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
       <c r="L48" t="s">
-        <v>433</v>
+        <v>480</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>434</v>
+        <v>481</v>
       </c>
       <c r="O48" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -6333,50 +6857,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>433</v>
+        <v>480</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>41220</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>6571</v>
+      </c>
+      <c r="C49" t="s">
+        <v>482</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>435</v>
+        <v>483</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>436</v>
+        <v>484</v>
       </c>
       <c r="J49" t="s">
-        <v>437</v>
+        <v>485</v>
       </c>
       <c r="K49" t="s">
-        <v>438</v>
+        <v>486</v>
       </c>
       <c r="L49" t="s">
-        <v>439</v>
+        <v>487</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>427</v>
+        <v>473</v>
       </c>
       <c r="O49" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -6394,50 +6922,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>440</v>
+        <v>488</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>41220</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>538</v>
+      </c>
+      <c r="C50" t="s">
+        <v>489</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>441</v>
+        <v>490</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
       <c r="J50" t="s">
-        <v>443</v>
+        <v>492</v>
       </c>
       <c r="K50" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
       <c r="L50" t="s">
-        <v>445</v>
+        <v>494</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>446</v>
+        <v>495</v>
       </c>
       <c r="O50" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -6455,50 +6987,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>445</v>
+        <v>494</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>41220</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>36446</v>
+      </c>
+      <c r="C51" t="s">
+        <v>496</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>447</v>
+        <v>497</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>448</v>
+        <v>498</v>
       </c>
       <c r="J51" t="s">
-        <v>449</v>
+        <v>499</v>
       </c>
       <c r="K51" t="s">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L51" t="s">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>452</v>
+        <v>502</v>
       </c>
       <c r="O51" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -6516,50 +7052,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>451</v>
+        <v>501</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>41220</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>136539</v>
+      </c>
+      <c r="C52" t="s">
+        <v>503</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>453</v>
+        <v>504</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="J52" t="s">
-        <v>455</v>
+        <v>506</v>
       </c>
       <c r="K52" t="s">
-        <v>456</v>
+        <v>507</v>
       </c>
       <c r="L52" t="s">
-        <v>457</v>
+        <v>508</v>
       </c>
       <c r="M52" t="n">
         <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>458</v>
+        <v>509</v>
       </c>
       <c r="O52" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="n">
@@ -6577,56 +7117,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>459</v>
+        <v>510</v>
       </c>
       <c r="X52" t="s">
-        <v>460</v>
+        <v>511</v>
       </c>
       <c r="Y52" t="s">
-        <v>461</v>
+        <v>512</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>41220</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>1341</v>
+      </c>
+      <c r="C53" t="s">
+        <v>513</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>463</v>
+        <v>515</v>
       </c>
       <c r="J53" t="s">
-        <v>464</v>
+        <v>516</v>
       </c>
       <c r="K53" t="s">
-        <v>465</v>
+        <v>517</v>
       </c>
       <c r="L53" t="s">
-        <v>466</v>
+        <v>518</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>458</v>
+        <v>509</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -6646,50 +7190,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>466</v>
+        <v>518</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>41220</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>7530</v>
+      </c>
+      <c r="C54" t="s">
+        <v>519</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>467</v>
+        <v>520</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>468</v>
+        <v>521</v>
       </c>
       <c r="J54" t="s">
-        <v>469</v>
+        <v>522</v>
       </c>
       <c r="K54" t="s">
-        <v>470</v>
+        <v>523</v>
       </c>
       <c r="L54" t="s">
-        <v>471</v>
+        <v>524</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>458</v>
+        <v>509</v>
       </c>
       <c r="O54" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -6703,50 +7251,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>471</v>
+        <v>524</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>41220</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>136540</v>
+      </c>
+      <c r="C55" t="s">
+        <v>525</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>472</v>
+        <v>526</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>473</v>
+        <v>527</v>
       </c>
       <c r="J55" t="s">
-        <v>474</v>
+        <v>528</v>
       </c>
       <c r="K55" t="s">
-        <v>475</v>
+        <v>529</v>
       </c>
       <c r="L55" t="s">
-        <v>476</v>
+        <v>530</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>477</v>
+        <v>531</v>
       </c>
       <c r="O55" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
@@ -6764,56 +7316,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>478</v>
+        <v>532</v>
       </c>
       <c r="X55" t="s">
-        <v>479</v>
+        <v>533</v>
       </c>
       <c r="Y55" t="s">
-        <v>480</v>
+        <v>534</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>41220</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>18833</v>
+      </c>
+      <c r="C56" t="s">
+        <v>44</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>481</v>
+        <v>535</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>482</v>
+        <v>536</v>
       </c>
       <c r="J56" t="s">
-        <v>483</v>
+        <v>537</v>
       </c>
       <c r="K56" t="s">
-        <v>484</v>
+        <v>538</v>
       </c>
       <c r="L56" t="s">
-        <v>485</v>
+        <v>539</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>486</v>
+        <v>540</v>
       </c>
       <c r="O56" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -6833,50 +7389,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>485</v>
+        <v>539</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>41220</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>136541</v>
+      </c>
+      <c r="C57" t="s">
+        <v>541</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>487</v>
+        <v>542</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>488</v>
+        <v>543</v>
       </c>
       <c r="J57" t="s">
-        <v>489</v>
+        <v>544</v>
       </c>
       <c r="K57" t="s">
-        <v>490</v>
+        <v>545</v>
       </c>
       <c r="L57" t="s">
-        <v>491</v>
+        <v>546</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>492</v>
+        <v>547</v>
       </c>
       <c r="O57" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -6890,50 +7450,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>491</v>
+        <v>546</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>41220</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>136542</v>
+      </c>
+      <c r="C58" t="s">
+        <v>548</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>493</v>
+        <v>549</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>494</v>
+        <v>550</v>
       </c>
       <c r="J58" t="s">
-        <v>495</v>
+        <v>551</v>
       </c>
       <c r="K58" t="s">
-        <v>496</v>
+        <v>552</v>
       </c>
       <c r="L58" t="s">
-        <v>497</v>
+        <v>553</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="O58" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -6953,50 +7517,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>499</v>
+        <v>555</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>41220</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>136543</v>
+      </c>
+      <c r="C59" t="s">
+        <v>556</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>500</v>
+        <v>557</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>501</v>
+        <v>558</v>
       </c>
       <c r="J59" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="K59" t="s">
-        <v>503</v>
+        <v>560</v>
       </c>
       <c r="L59" t="s">
-        <v>504</v>
+        <v>561</v>
       </c>
       <c r="M59" t="n">
         <v>3</v>
       </c>
       <c r="N59" t="s">
-        <v>505</v>
+        <v>562</v>
       </c>
       <c r="O59" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P59" t="n">
         <v>3</v>
@@ -7018,56 +7586,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>506</v>
+        <v>563</v>
       </c>
       <c r="X59" t="s">
-        <v>507</v>
+        <v>564</v>
       </c>
       <c r="Y59" t="s">
-        <v>508</v>
+        <v>565</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>41220</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>10137</v>
+      </c>
+      <c r="C60" t="s">
+        <v>566</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>509</v>
+        <v>567</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>510</v>
+        <v>568</v>
       </c>
       <c r="J60" t="s">
-        <v>511</v>
+        <v>569</v>
       </c>
       <c r="K60" t="s">
-        <v>512</v>
+        <v>570</v>
       </c>
       <c r="L60" t="s">
-        <v>513</v>
+        <v>571</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>505</v>
+        <v>562</v>
       </c>
       <c r="O60" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
@@ -7081,50 +7653,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>513</v>
+        <v>571</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>41220</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>136544</v>
+      </c>
+      <c r="C61" t="s">
+        <v>572</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>514</v>
+        <v>573</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>515</v>
+        <v>574</v>
       </c>
       <c r="J61" t="s">
-        <v>516</v>
+        <v>575</v>
       </c>
       <c r="K61" t="s">
-        <v>517</v>
+        <v>576</v>
       </c>
       <c r="L61" t="s">
-        <v>518</v>
+        <v>577</v>
       </c>
       <c r="M61" t="n">
         <v>2</v>
       </c>
       <c r="N61" t="s">
-        <v>519</v>
+        <v>578</v>
       </c>
       <c r="O61" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P61" t="n">
         <v>2</v>
@@ -7146,56 +7722,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>520</v>
+        <v>579</v>
       </c>
       <c r="X61" t="s">
-        <v>521</v>
+        <v>580</v>
       </c>
       <c r="Y61" t="s">
-        <v>522</v>
+        <v>581</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>41220</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>123920</v>
+      </c>
+      <c r="C62" t="s">
+        <v>582</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>523</v>
+        <v>583</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>524</v>
+        <v>584</v>
       </c>
       <c r="J62" t="s">
-        <v>525</v>
+        <v>585</v>
       </c>
       <c r="K62" t="s">
-        <v>526</v>
+        <v>586</v>
       </c>
       <c r="L62" t="s">
-        <v>527</v>
+        <v>587</v>
       </c>
       <c r="M62" t="n">
         <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>528</v>
+        <v>588</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -7219,50 +7799,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>529</v>
+        <v>589</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>41220</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>136545</v>
+      </c>
+      <c r="C63" t="s">
+        <v>590</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>530</v>
+        <v>591</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>531</v>
+        <v>592</v>
       </c>
       <c r="J63" t="s">
-        <v>532</v>
+        <v>593</v>
       </c>
       <c r="K63" t="s">
-        <v>533</v>
+        <v>594</v>
       </c>
       <c r="L63" t="s">
-        <v>534</v>
+        <v>595</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>535</v>
+        <v>596</v>
       </c>
       <c r="O63" t="s">
-        <v>428</v>
+        <v>474</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -7286,50 +7870,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>534</v>
+        <v>595</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>41220</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>136510</v>
+      </c>
+      <c r="C64" t="s">
+        <v>79</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>536</v>
+        <v>597</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>537</v>
+        <v>598</v>
       </c>
       <c r="J64" t="s">
-        <v>538</v>
+        <v>599</v>
       </c>
       <c r="K64" t="s">
-        <v>539</v>
+        <v>600</v>
       </c>
       <c r="L64" t="s">
-        <v>540</v>
+        <v>601</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>541</v>
+        <v>602</v>
       </c>
       <c r="O64" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -7353,50 +7941,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>542</v>
+        <v>603</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>41220</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>3042</v>
+      </c>
+      <c r="C65" t="s">
+        <v>604</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>543</v>
+        <v>605</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>544</v>
+        <v>606</v>
       </c>
       <c r="J65" t="s">
-        <v>545</v>
+        <v>607</v>
       </c>
       <c r="K65" t="s">
-        <v>546</v>
+        <v>608</v>
       </c>
       <c r="L65" t="s">
-        <v>547</v>
+        <v>609</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>548</v>
+        <v>610</v>
       </c>
       <c r="O65" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -7420,50 +8012,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>547</v>
+        <v>609</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>41220</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>136546</v>
+      </c>
+      <c r="C66" t="s">
+        <v>611</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>549</v>
+        <v>612</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>550</v>
+        <v>613</v>
       </c>
       <c r="J66" t="s">
-        <v>551</v>
+        <v>614</v>
       </c>
       <c r="K66" t="s">
-        <v>552</v>
+        <v>615</v>
       </c>
       <c r="L66" t="s">
-        <v>553</v>
+        <v>616</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>554</v>
+        <v>617</v>
       </c>
       <c r="O66" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P66" t="n">
         <v>4</v>
@@ -7487,41 +8083,45 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>555</v>
+        <v>618</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>41220</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>80524</v>
+      </c>
+      <c r="C67" t="s">
+        <v>619</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>556</v>
+        <v>620</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>557</v>
+        <v>621</v>
       </c>
       <c r="J67" t="s">
-        <v>558</v>
+        <v>622</v>
       </c>
       <c r="K67" t="s">
-        <v>559</v>
+        <v>623</v>
       </c>
       <c r="L67" t="s">
-        <v>560</v>
+        <v>624</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
@@ -7550,50 +8150,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>560</v>
+        <v>624</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>41220</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>136547</v>
+      </c>
+      <c r="C68" t="s">
+        <v>625</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>561</v>
+        <v>626</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>562</v>
+        <v>627</v>
       </c>
       <c r="J68" t="s">
-        <v>563</v>
+        <v>628</v>
       </c>
       <c r="K68" t="s">
-        <v>564</v>
+        <v>629</v>
       </c>
       <c r="L68" t="s">
-        <v>565</v>
+        <v>630</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>566</v>
+        <v>631</v>
       </c>
       <c r="O68" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -7615,56 +8219,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>567</v>
+        <v>632</v>
       </c>
       <c r="X68" t="s">
-        <v>568</v>
+        <v>633</v>
       </c>
       <c r="Y68" t="s">
-        <v>569</v>
+        <v>634</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>41220</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>136548</v>
+      </c>
+      <c r="C69" t="s">
+        <v>635</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>570</v>
+        <v>636</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>571</v>
+        <v>637</v>
       </c>
       <c r="J69" t="s">
-        <v>572</v>
+        <v>638</v>
       </c>
       <c r="K69" t="s">
-        <v>573</v>
+        <v>639</v>
       </c>
       <c r="L69" t="s">
-        <v>574</v>
+        <v>640</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>575</v>
+        <v>641</v>
       </c>
       <c r="O69" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -7686,47 +8294,51 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>576</v>
+        <v>642</v>
       </c>
       <c r="X69" t="s">
-        <v>577</v>
+        <v>643</v>
       </c>
       <c r="Y69" t="s">
-        <v>578</v>
+        <v>644</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>41220</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>136549</v>
+      </c>
+      <c r="C70" t="s">
+        <v>645</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>579</v>
+        <v>646</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>580</v>
+        <v>647</v>
       </c>
       <c r="J70" t="s">
-        <v>581</v>
+        <v>648</v>
       </c>
       <c r="K70" t="s">
-        <v>582</v>
+        <v>649</v>
       </c>
       <c r="L70" t="s">
-        <v>583</v>
+        <v>650</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
@@ -7753,56 +8365,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>584</v>
+        <v>651</v>
       </c>
       <c r="X70" t="s">
-        <v>585</v>
+        <v>652</v>
       </c>
       <c r="Y70" t="s">
-        <v>586</v>
+        <v>653</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>41220</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>136550</v>
+      </c>
+      <c r="C71" t="s">
+        <v>654</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>587</v>
+        <v>655</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>588</v>
+        <v>656</v>
       </c>
       <c r="J71" t="s">
-        <v>589</v>
+        <v>657</v>
       </c>
       <c r="K71" t="s">
-        <v>590</v>
+        <v>658</v>
       </c>
       <c r="L71" t="s">
-        <v>591</v>
+        <v>659</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>592</v>
+        <v>660</v>
       </c>
       <c r="O71" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -7824,56 +8440,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>593</v>
+        <v>661</v>
       </c>
       <c r="X71" t="s">
-        <v>594</v>
+        <v>662</v>
       </c>
       <c r="Y71" t="s">
-        <v>595</v>
+        <v>663</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>41220</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>17859</v>
+      </c>
+      <c r="C72" t="s">
+        <v>664</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>596</v>
+        <v>665</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>597</v>
+        <v>666</v>
       </c>
       <c r="J72" t="s">
-        <v>598</v>
+        <v>667</v>
       </c>
       <c r="K72" t="s">
-        <v>599</v>
+        <v>668</v>
       </c>
       <c r="L72" t="s">
-        <v>600</v>
+        <v>669</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>592</v>
+        <v>660</v>
       </c>
       <c r="O72" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P72" t="s"/>
       <c r="Q72" t="s"/>
@@ -7885,56 +8505,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>601</v>
+        <v>670</v>
       </c>
       <c r="X72" t="s">
-        <v>602</v>
+        <v>671</v>
       </c>
       <c r="Y72" t="s">
-        <v>603</v>
+        <v>672</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>41220</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>162</v>
+      </c>
+      <c r="C73" t="s">
+        <v>673</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>604</v>
+        <v>674</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>605</v>
+        <v>675</v>
       </c>
       <c r="J73" t="s">
-        <v>606</v>
+        <v>676</v>
       </c>
       <c r="K73" t="s">
-        <v>607</v>
+        <v>677</v>
       </c>
       <c r="L73" t="s">
-        <v>608</v>
+        <v>678</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>609</v>
+        <v>679</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7956,56 +8580,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>610</v>
+        <v>680</v>
       </c>
       <c r="X73" t="s">
-        <v>611</v>
+        <v>681</v>
       </c>
       <c r="Y73" t="s">
-        <v>612</v>
+        <v>682</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>41220</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>136551</v>
+      </c>
+      <c r="C74" t="s">
+        <v>683</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>613</v>
+        <v>684</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>614</v>
+        <v>685</v>
       </c>
       <c r="J74" t="s">
-        <v>615</v>
+        <v>686</v>
       </c>
       <c r="K74" t="s">
-        <v>616</v>
+        <v>687</v>
       </c>
       <c r="L74" t="s">
-        <v>617</v>
+        <v>688</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>609</v>
+        <v>679</v>
       </c>
       <c r="O74" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -8027,56 +8655,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>618</v>
+        <v>689</v>
       </c>
       <c r="X74" t="s">
-        <v>619</v>
+        <v>690</v>
       </c>
       <c r="Y74" t="s">
-        <v>620</v>
+        <v>691</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>41220</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>136552</v>
+      </c>
+      <c r="C75" t="s">
+        <v>692</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>621</v>
+        <v>693</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>622</v>
+        <v>694</v>
       </c>
       <c r="J75" t="s">
-        <v>623</v>
+        <v>695</v>
       </c>
       <c r="K75" t="s">
-        <v>624</v>
+        <v>696</v>
       </c>
       <c r="L75" t="s">
-        <v>625</v>
+        <v>697</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>609</v>
+        <v>679</v>
       </c>
       <c r="O75" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -8098,56 +8730,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>626</v>
+        <v>698</v>
       </c>
       <c r="X75" t="s">
-        <v>627</v>
+        <v>699</v>
       </c>
       <c r="Y75" t="s">
-        <v>628</v>
+        <v>700</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>41220</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>20985</v>
+      </c>
+      <c r="C76" t="s">
+        <v>701</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>629</v>
+        <v>702</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>630</v>
+        <v>703</v>
       </c>
       <c r="J76" t="s">
-        <v>631</v>
+        <v>704</v>
       </c>
       <c r="K76" t="s">
-        <v>632</v>
+        <v>705</v>
       </c>
       <c r="L76" t="s">
-        <v>633</v>
+        <v>706</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>634</v>
+        <v>707</v>
       </c>
       <c r="O76" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -8169,56 +8805,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>635</v>
+        <v>708</v>
       </c>
       <c r="X76" t="s">
-        <v>636</v>
+        <v>709</v>
       </c>
       <c r="Y76" t="s">
-        <v>637</v>
+        <v>710</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>41220</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>136553</v>
+      </c>
+      <c r="C77" t="s">
+        <v>711</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>638</v>
+        <v>712</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>639</v>
+        <v>713</v>
       </c>
       <c r="J77" t="s">
-        <v>640</v>
+        <v>714</v>
       </c>
       <c r="K77" t="s">
-        <v>641</v>
+        <v>715</v>
       </c>
       <c r="L77" t="s">
-        <v>642</v>
+        <v>716</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>634</v>
+        <v>707</v>
       </c>
       <c r="O77" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -8240,56 +8880,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>635</v>
+        <v>708</v>
       </c>
       <c r="X77" t="s">
-        <v>636</v>
+        <v>709</v>
       </c>
       <c r="Y77" t="s">
-        <v>643</v>
+        <v>717</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>41220</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>136554</v>
+      </c>
+      <c r="C78" t="s">
+        <v>718</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>644</v>
+        <v>719</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>645</v>
+        <v>720</v>
       </c>
       <c r="J78" t="s">
-        <v>646</v>
+        <v>721</v>
       </c>
       <c r="K78" t="s">
-        <v>647</v>
+        <v>722</v>
       </c>
       <c r="L78" t="s">
-        <v>648</v>
+        <v>723</v>
       </c>
       <c r="M78" t="n">
         <v>3</v>
       </c>
       <c r="N78" t="s">
-        <v>634</v>
+        <v>707</v>
       </c>
       <c r="O78" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -8311,56 +8955,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>649</v>
+        <v>724</v>
       </c>
       <c r="X78" t="s">
-        <v>650</v>
+        <v>725</v>
       </c>
       <c r="Y78" t="s">
-        <v>651</v>
+        <v>726</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>41220</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>58734</v>
+      </c>
+      <c r="C79" t="s">
+        <v>727</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>652</v>
+        <v>728</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>653</v>
+        <v>729</v>
       </c>
       <c r="J79" t="s">
-        <v>654</v>
+        <v>730</v>
       </c>
       <c r="K79" t="s">
-        <v>655</v>
+        <v>731</v>
       </c>
       <c r="L79" t="s">
-        <v>656</v>
+        <v>732</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>657</v>
+        <v>733</v>
       </c>
       <c r="O79" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -8382,56 +9030,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>658</v>
+        <v>734</v>
       </c>
       <c r="X79" t="s">
-        <v>659</v>
+        <v>735</v>
       </c>
       <c r="Y79" t="s">
-        <v>660</v>
+        <v>736</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>41220</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>136555</v>
+      </c>
+      <c r="C80" t="s">
+        <v>737</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>661</v>
+        <v>738</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>662</v>
+        <v>739</v>
       </c>
       <c r="J80" t="s">
-        <v>663</v>
+        <v>740</v>
       </c>
       <c r="K80" t="s">
-        <v>664</v>
+        <v>741</v>
       </c>
       <c r="L80" t="s">
-        <v>665</v>
+        <v>742</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>657</v>
+        <v>733</v>
       </c>
       <c r="O80" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -8453,56 +9105,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>666</v>
+        <v>743</v>
       </c>
       <c r="X80" t="s">
-        <v>667</v>
+        <v>744</v>
       </c>
       <c r="Y80" t="s">
-        <v>668</v>
+        <v>745</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>41220</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>136556</v>
+      </c>
+      <c r="C81" t="s">
+        <v>746</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>669</v>
+        <v>747</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>670</v>
+        <v>748</v>
       </c>
       <c r="J81" t="s">
-        <v>671</v>
+        <v>749</v>
       </c>
       <c r="K81" t="s">
-        <v>672</v>
+        <v>750</v>
       </c>
       <c r="L81" t="s">
-        <v>673</v>
+        <v>751</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>657</v>
+        <v>733</v>
       </c>
       <c r="O81" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P81" t="n">
         <v>4</v>
@@ -8524,56 +9180,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>674</v>
+        <v>752</v>
       </c>
       <c r="X81" t="s">
-        <v>675</v>
+        <v>753</v>
       </c>
       <c r="Y81" t="s">
-        <v>676</v>
+        <v>754</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>41220</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>136557</v>
+      </c>
+      <c r="C82" t="s">
+        <v>755</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>677</v>
+        <v>756</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>678</v>
+        <v>757</v>
       </c>
       <c r="J82" t="s">
-        <v>679</v>
+        <v>758</v>
       </c>
       <c r="K82" t="s">
-        <v>680</v>
+        <v>759</v>
       </c>
       <c r="L82" t="s">
-        <v>681</v>
+        <v>760</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>682</v>
+        <v>761</v>
       </c>
       <c r="O82" t="s">
-        <v>428</v>
+        <v>474</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -8595,56 +9255,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>683</v>
+        <v>762</v>
       </c>
       <c r="X82" t="s">
-        <v>684</v>
+        <v>763</v>
       </c>
       <c r="Y82" t="s">
-        <v>685</v>
+        <v>764</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>41220</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>136558</v>
+      </c>
+      <c r="C83" t="s">
+        <v>765</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>686</v>
+        <v>766</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>687</v>
+        <v>767</v>
       </c>
       <c r="J83" t="s">
-        <v>688</v>
+        <v>768</v>
       </c>
       <c r="K83" t="s">
-        <v>689</v>
+        <v>769</v>
       </c>
       <c r="L83" t="s">
-        <v>690</v>
+        <v>770</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>682</v>
+        <v>761</v>
       </c>
       <c r="O83" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -8666,56 +9330,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>691</v>
+        <v>771</v>
       </c>
       <c r="X83" t="s">
-        <v>692</v>
+        <v>772</v>
       </c>
       <c r="Y83" t="s">
-        <v>693</v>
+        <v>773</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>41220</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>136559</v>
+      </c>
+      <c r="C84" t="s">
+        <v>774</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>694</v>
+        <v>775</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>695</v>
+        <v>776</v>
       </c>
       <c r="J84" t="s">
-        <v>696</v>
+        <v>777</v>
       </c>
       <c r="K84" t="s">
-        <v>697</v>
+        <v>778</v>
       </c>
       <c r="L84" t="s">
-        <v>698</v>
+        <v>779</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>682</v>
+        <v>761</v>
       </c>
       <c r="O84" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -8737,56 +9405,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>699</v>
+        <v>780</v>
       </c>
       <c r="X84" t="s">
-        <v>692</v>
+        <v>772</v>
       </c>
       <c r="Y84" t="s">
-        <v>700</v>
+        <v>781</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>41220</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>136560</v>
+      </c>
+      <c r="C85" t="s">
+        <v>782</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>701</v>
+        <v>783</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>702</v>
+        <v>784</v>
       </c>
       <c r="J85" t="s">
-        <v>703</v>
+        <v>785</v>
       </c>
       <c r="K85" t="s">
-        <v>704</v>
+        <v>786</v>
       </c>
       <c r="L85" t="s">
-        <v>705</v>
+        <v>787</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>682</v>
+        <v>761</v>
       </c>
       <c r="O85" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -8808,56 +9480,60 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>706</v>
+        <v>788</v>
       </c>
       <c r="X85" t="s">
-        <v>707</v>
+        <v>789</v>
       </c>
       <c r="Y85" t="s">
-        <v>708</v>
+        <v>790</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>41220</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>39908</v>
+      </c>
+      <c r="C86" t="s">
+        <v>791</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>709</v>
+        <v>792</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>710</v>
+        <v>793</v>
       </c>
       <c r="J86" t="s">
-        <v>711</v>
+        <v>794</v>
       </c>
       <c r="K86" t="s">
-        <v>712</v>
+        <v>795</v>
       </c>
       <c r="L86" t="s">
-        <v>713</v>
+        <v>796</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>682</v>
+        <v>761</v>
       </c>
       <c r="O86" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="P86" t="n">
         <v>1</v>
@@ -8879,56 +9555,60 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>714</v>
+        <v>797</v>
       </c>
       <c r="X86" t="s">
-        <v>715</v>
+        <v>798</v>
       </c>
       <c r="Y86" t="s">
-        <v>716</v>
+        <v>799</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>41220</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>90153</v>
+      </c>
+      <c r="C87" t="s">
+        <v>800</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>717</v>
+        <v>801</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>718</v>
+        <v>802</v>
       </c>
       <c r="J87" t="s">
-        <v>719</v>
+        <v>803</v>
       </c>
       <c r="K87" t="s">
-        <v>720</v>
+        <v>804</v>
       </c>
       <c r="L87" t="s">
-        <v>721</v>
+        <v>805</v>
       </c>
       <c r="M87" t="n">
         <v>4</v>
       </c>
       <c r="N87" t="s">
-        <v>722</v>
+        <v>806</v>
       </c>
       <c r="O87" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P87" t="s"/>
       <c r="Q87" t="s"/>
@@ -8940,56 +9620,60 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>723</v>
+        <v>807</v>
       </c>
       <c r="X87" t="s">
-        <v>724</v>
+        <v>808</v>
       </c>
       <c r="Y87" t="s">
-        <v>725</v>
+        <v>809</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>41220</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>136561</v>
+      </c>
+      <c r="C88" t="s">
+        <v>810</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>726</v>
+        <v>811</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>727</v>
+        <v>812</v>
       </c>
       <c r="J88" t="s">
-        <v>728</v>
+        <v>813</v>
       </c>
       <c r="K88" t="s">
-        <v>729</v>
+        <v>814</v>
       </c>
       <c r="L88" t="s">
-        <v>730</v>
+        <v>815</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>731</v>
+        <v>816</v>
       </c>
       <c r="O88" t="s">
-        <v>428</v>
+        <v>474</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -9011,56 +9695,60 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>732</v>
+        <v>817</v>
       </c>
       <c r="X88" t="s">
-        <v>733</v>
+        <v>818</v>
       </c>
       <c r="Y88" t="s">
-        <v>734</v>
+        <v>819</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>41220</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>136562</v>
+      </c>
+      <c r="C89" t="s">
+        <v>820</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>735</v>
+        <v>821</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>736</v>
+        <v>822</v>
       </c>
       <c r="J89" t="s">
-        <v>737</v>
+        <v>823</v>
       </c>
       <c r="K89" t="s">
-        <v>738</v>
+        <v>824</v>
       </c>
       <c r="L89" t="s">
-        <v>739</v>
+        <v>825</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
       </c>
       <c r="N89" t="s">
-        <v>740</v>
+        <v>826</v>
       </c>
       <c r="O89" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -9082,56 +9770,60 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>741</v>
+        <v>827</v>
       </c>
       <c r="X89" t="s">
-        <v>742</v>
+        <v>828</v>
       </c>
       <c r="Y89" t="s">
-        <v>743</v>
+        <v>829</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>41220</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>136563</v>
+      </c>
+      <c r="C90" t="s">
+        <v>830</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>744</v>
+        <v>831</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>745</v>
+        <v>832</v>
       </c>
       <c r="J90" t="s">
-        <v>746</v>
+        <v>833</v>
       </c>
       <c r="K90" t="s">
-        <v>747</v>
+        <v>834</v>
       </c>
       <c r="L90" t="s">
-        <v>748</v>
+        <v>835</v>
       </c>
       <c r="M90" t="n">
         <v>5</v>
       </c>
       <c r="N90" t="s">
-        <v>740</v>
+        <v>826</v>
       </c>
       <c r="O90" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P90" t="n">
         <v>5</v>
@@ -9153,56 +9845,60 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>749</v>
+        <v>836</v>
       </c>
       <c r="X90" t="s">
-        <v>750</v>
+        <v>837</v>
       </c>
       <c r="Y90" t="s">
-        <v>751</v>
+        <v>838</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>41220</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>136564</v>
+      </c>
+      <c r="C91" t="s">
+        <v>839</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>752</v>
+        <v>840</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>753</v>
+        <v>841</v>
       </c>
       <c r="J91" t="s">
-        <v>754</v>
+        <v>842</v>
       </c>
       <c r="K91" t="s">
-        <v>755</v>
+        <v>843</v>
       </c>
       <c r="L91" t="s">
-        <v>756</v>
+        <v>844</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>740</v>
+        <v>826</v>
       </c>
       <c r="O91" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -9224,56 +9920,60 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>757</v>
+        <v>845</v>
       </c>
       <c r="X91" t="s">
-        <v>758</v>
+        <v>846</v>
       </c>
       <c r="Y91" t="s">
-        <v>759</v>
+        <v>847</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>41220</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>136565</v>
+      </c>
+      <c r="C92" t="s">
+        <v>848</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>760</v>
+        <v>849</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>761</v>
+        <v>850</v>
       </c>
       <c r="J92" t="s">
-        <v>754</v>
+        <v>842</v>
       </c>
       <c r="K92" t="s">
-        <v>762</v>
+        <v>851</v>
       </c>
       <c r="L92" t="s">
-        <v>763</v>
+        <v>852</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
       </c>
       <c r="N92" t="s">
-        <v>740</v>
+        <v>826</v>
       </c>
       <c r="O92" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P92" t="n">
         <v>5</v>
@@ -9295,56 +9995,60 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>757</v>
+        <v>845</v>
       </c>
       <c r="X92" t="s">
-        <v>758</v>
+        <v>846</v>
       </c>
       <c r="Y92" t="s">
-        <v>764</v>
+        <v>853</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>41220</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>54091</v>
+      </c>
+      <c r="C93" t="s">
+        <v>854</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>765</v>
+        <v>855</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>766</v>
+        <v>856</v>
       </c>
       <c r="J93" t="s">
-        <v>767</v>
+        <v>857</v>
       </c>
       <c r="K93" t="s">
-        <v>768</v>
+        <v>858</v>
       </c>
       <c r="L93" t="s">
-        <v>769</v>
+        <v>859</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>740</v>
+        <v>826</v>
       </c>
       <c r="O93" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -9366,56 +10070,60 @@
         <v>0</v>
       </c>
       <c r="W93" t="s">
-        <v>770</v>
+        <v>860</v>
       </c>
       <c r="X93" t="s">
-        <v>771</v>
+        <v>861</v>
       </c>
       <c r="Y93" t="s">
-        <v>772</v>
+        <v>862</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>41220</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>136566</v>
+      </c>
+      <c r="C94" t="s">
+        <v>863</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>773</v>
+        <v>864</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>774</v>
+        <v>865</v>
       </c>
       <c r="J94" t="s">
-        <v>775</v>
+        <v>866</v>
       </c>
       <c r="K94" t="s">
-        <v>776</v>
+        <v>867</v>
       </c>
       <c r="L94" t="s">
-        <v>777</v>
+        <v>868</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
       </c>
       <c r="N94" t="s">
-        <v>778</v>
+        <v>869</v>
       </c>
       <c r="O94" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P94" t="n">
         <v>5</v>
@@ -9437,56 +10145,60 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>779</v>
+        <v>870</v>
       </c>
       <c r="X94" t="s">
-        <v>780</v>
+        <v>871</v>
       </c>
       <c r="Y94" t="s">
-        <v>781</v>
+        <v>872</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>41220</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>136567</v>
+      </c>
+      <c r="C95" t="s">
+        <v>873</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>782</v>
+        <v>874</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>783</v>
+        <v>875</v>
       </c>
       <c r="J95" t="s">
-        <v>784</v>
+        <v>876</v>
       </c>
       <c r="K95" t="s">
-        <v>785</v>
+        <v>877</v>
       </c>
       <c r="L95" t="s">
-        <v>786</v>
+        <v>878</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
       </c>
       <c r="N95" t="s">
-        <v>740</v>
+        <v>826</v>
       </c>
       <c r="O95" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P95" t="n">
         <v>5</v>
@@ -9508,56 +10220,60 @@
         <v>0</v>
       </c>
       <c r="W95" t="s">
-        <v>787</v>
+        <v>879</v>
       </c>
       <c r="X95" t="s">
-        <v>788</v>
+        <v>880</v>
       </c>
       <c r="Y95" t="s">
-        <v>789</v>
+        <v>881</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>41220</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>37916</v>
+      </c>
+      <c r="C96" t="s">
+        <v>882</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>790</v>
+        <v>883</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>791</v>
+        <v>884</v>
       </c>
       <c r="J96" t="s">
-        <v>792</v>
+        <v>885</v>
       </c>
       <c r="K96" t="s">
-        <v>793</v>
+        <v>886</v>
       </c>
       <c r="L96" t="s">
-        <v>794</v>
+        <v>887</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
       </c>
       <c r="N96" t="s">
-        <v>778</v>
+        <v>869</v>
       </c>
       <c r="O96" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P96" t="n">
         <v>4</v>
@@ -9579,56 +10295,60 @@
         <v>0</v>
       </c>
       <c r="W96" t="s">
-        <v>795</v>
+        <v>888</v>
       </c>
       <c r="X96" t="s">
-        <v>796</v>
+        <v>889</v>
       </c>
       <c r="Y96" t="s">
-        <v>797</v>
+        <v>890</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>41220</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>136568</v>
+      </c>
+      <c r="C97" t="s">
+        <v>891</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>798</v>
+        <v>892</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>799</v>
+        <v>893</v>
       </c>
       <c r="J97" t="s">
-        <v>800</v>
+        <v>894</v>
       </c>
       <c r="K97" t="s">
-        <v>801</v>
+        <v>895</v>
       </c>
       <c r="L97" t="s">
-        <v>802</v>
+        <v>896</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
       <c r="N97" t="s">
-        <v>778</v>
+        <v>869</v>
       </c>
       <c r="O97" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -9650,56 +10370,60 @@
         <v>0</v>
       </c>
       <c r="W97" t="s">
-        <v>803</v>
+        <v>897</v>
       </c>
       <c r="X97" t="s">
-        <v>804</v>
+        <v>898</v>
       </c>
       <c r="Y97" t="s">
-        <v>805</v>
+        <v>899</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>41220</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>10066</v>
+      </c>
+      <c r="C98" t="s">
+        <v>900</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>806</v>
+        <v>901</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>807</v>
+        <v>902</v>
       </c>
       <c r="J98" t="s">
-        <v>808</v>
+        <v>903</v>
       </c>
       <c r="K98" t="s">
-        <v>809</v>
+        <v>904</v>
       </c>
       <c r="L98" t="s">
-        <v>810</v>
+        <v>905</v>
       </c>
       <c r="M98" t="n">
         <v>5</v>
       </c>
       <c r="N98" t="s">
-        <v>778</v>
+        <v>869</v>
       </c>
       <c r="O98" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -9721,56 +10445,60 @@
         <v>0</v>
       </c>
       <c r="W98" t="s">
-        <v>811</v>
+        <v>906</v>
       </c>
       <c r="X98" t="s">
-        <v>812</v>
+        <v>907</v>
       </c>
       <c r="Y98" t="s">
-        <v>813</v>
+        <v>908</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>41220</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>20542</v>
+      </c>
+      <c r="C99" t="s">
+        <v>909</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>815</v>
+        <v>911</v>
       </c>
       <c r="J99" t="s">
-        <v>816</v>
+        <v>912</v>
       </c>
       <c r="K99" t="s">
-        <v>817</v>
+        <v>913</v>
       </c>
       <c r="L99" t="s">
-        <v>818</v>
+        <v>914</v>
       </c>
       <c r="M99" t="n">
         <v>5</v>
       </c>
       <c r="N99" t="s">
-        <v>778</v>
+        <v>869</v>
       </c>
       <c r="O99" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P99" t="n">
         <v>5</v>
@@ -9792,56 +10520,60 @@
         <v>0</v>
       </c>
       <c r="W99" t="s">
-        <v>819</v>
+        <v>915</v>
       </c>
       <c r="X99" t="s">
-        <v>820</v>
+        <v>916</v>
       </c>
       <c r="Y99" t="s">
-        <v>821</v>
+        <v>917</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>41220</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>136569</v>
+      </c>
+      <c r="C100" t="s">
+        <v>918</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>822</v>
+        <v>919</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>823</v>
+        <v>920</v>
       </c>
       <c r="J100" t="s">
-        <v>824</v>
+        <v>921</v>
       </c>
       <c r="K100" t="s">
-        <v>825</v>
+        <v>922</v>
       </c>
       <c r="L100" t="s">
-        <v>826</v>
+        <v>923</v>
       </c>
       <c r="M100" t="n">
         <v>5</v>
       </c>
       <c r="N100" t="s">
-        <v>778</v>
+        <v>869</v>
       </c>
       <c r="O100" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P100" t="n">
         <v>5</v>
@@ -9863,56 +10595,60 @@
         <v>0</v>
       </c>
       <c r="W100" t="s">
-        <v>819</v>
+        <v>915</v>
       </c>
       <c r="X100" t="s">
-        <v>820</v>
+        <v>916</v>
       </c>
       <c r="Y100" t="s">
-        <v>827</v>
+        <v>924</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>41220</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>136570</v>
+      </c>
+      <c r="C101" t="s">
+        <v>925</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>828</v>
+        <v>926</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>829</v>
+        <v>927</v>
       </c>
       <c r="J101" t="s">
-        <v>830</v>
+        <v>928</v>
       </c>
       <c r="K101" t="s">
-        <v>831</v>
+        <v>929</v>
       </c>
       <c r="L101" t="s">
-        <v>832</v>
+        <v>930</v>
       </c>
       <c r="M101" t="n">
         <v>5</v>
       </c>
       <c r="N101" t="s">
-        <v>778</v>
+        <v>869</v>
       </c>
       <c r="O101" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P101" t="n">
         <v>5</v>
@@ -9934,56 +10670,60 @@
         <v>0</v>
       </c>
       <c r="W101" t="s">
-        <v>833</v>
+        <v>931</v>
       </c>
       <c r="X101" t="s">
-        <v>834</v>
+        <v>932</v>
       </c>
       <c r="Y101" t="s">
-        <v>835</v>
+        <v>933</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>41220</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>136571</v>
+      </c>
+      <c r="C102" t="s">
+        <v>934</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>836</v>
+        <v>935</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>837</v>
+        <v>936</v>
       </c>
       <c r="J102" t="s">
-        <v>838</v>
+        <v>937</v>
       </c>
       <c r="K102" t="s">
-        <v>839</v>
+        <v>938</v>
       </c>
       <c r="L102" t="s">
-        <v>840</v>
+        <v>939</v>
       </c>
       <c r="M102" t="n">
         <v>5</v>
       </c>
       <c r="N102" t="s">
-        <v>841</v>
+        <v>940</v>
       </c>
       <c r="O102" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P102" t="n">
         <v>5</v>
@@ -10005,47 +10745,51 @@
         <v>0</v>
       </c>
       <c r="W102" t="s">
-        <v>842</v>
+        <v>941</v>
       </c>
       <c r="X102" t="s">
-        <v>843</v>
+        <v>942</v>
       </c>
       <c r="Y102" t="s">
-        <v>844</v>
+        <v>943</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>41220</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>136572</v>
+      </c>
+      <c r="C103" t="s">
+        <v>944</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>845</v>
+        <v>945</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>846</v>
+        <v>946</v>
       </c>
       <c r="J103" t="s">
-        <v>838</v>
+        <v>937</v>
       </c>
       <c r="K103" t="s">
-        <v>847</v>
+        <v>947</v>
       </c>
       <c r="L103" t="s">
-        <v>848</v>
+        <v>948</v>
       </c>
       <c r="M103" t="n">
         <v>5</v>
@@ -10072,56 +10816,60 @@
         <v>0</v>
       </c>
       <c r="W103" t="s">
-        <v>833</v>
+        <v>931</v>
       </c>
       <c r="X103" t="s">
-        <v>834</v>
+        <v>932</v>
       </c>
       <c r="Y103" t="s">
-        <v>849</v>
+        <v>949</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>41220</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>136573</v>
+      </c>
+      <c r="C104" t="s">
+        <v>950</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>850</v>
+        <v>951</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>851</v>
+        <v>952</v>
       </c>
       <c r="J104" t="s">
-        <v>852</v>
+        <v>953</v>
       </c>
       <c r="K104" t="s">
-        <v>853</v>
+        <v>954</v>
       </c>
       <c r="L104" t="s">
-        <v>854</v>
+        <v>955</v>
       </c>
       <c r="M104" t="n">
         <v>5</v>
       </c>
       <c r="N104" t="s">
-        <v>778</v>
+        <v>869</v>
       </c>
       <c r="O104" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P104" t="n">
         <v>5</v>
@@ -10143,56 +10891,60 @@
         <v>0</v>
       </c>
       <c r="W104" t="s">
-        <v>855</v>
+        <v>956</v>
       </c>
       <c r="X104" t="s">
-        <v>856</v>
+        <v>957</v>
       </c>
       <c r="Y104" t="s">
-        <v>857</v>
+        <v>958</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>41220</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>136574</v>
+      </c>
+      <c r="C105" t="s">
+        <v>959</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>858</v>
+        <v>960</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>859</v>
+        <v>961</v>
       </c>
       <c r="J105" t="s">
-        <v>860</v>
+        <v>962</v>
       </c>
       <c r="K105" t="s">
-        <v>861</v>
+        <v>963</v>
       </c>
       <c r="L105" t="s">
-        <v>862</v>
+        <v>964</v>
       </c>
       <c r="M105" t="n">
         <v>3</v>
       </c>
       <c r="N105" t="s">
-        <v>863</v>
+        <v>965</v>
       </c>
       <c r="O105" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P105" t="n">
         <v>3</v>
@@ -10214,56 +10966,60 @@
         <v>0</v>
       </c>
       <c r="W105" t="s">
-        <v>864</v>
+        <v>966</v>
       </c>
       <c r="X105" t="s">
-        <v>865</v>
+        <v>967</v>
       </c>
       <c r="Y105" t="s">
-        <v>866</v>
+        <v>968</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>41220</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>11015</v>
+      </c>
+      <c r="C106" t="s">
+        <v>969</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>867</v>
+        <v>970</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>868</v>
+        <v>971</v>
       </c>
       <c r="J106" t="s">
-        <v>869</v>
+        <v>972</v>
       </c>
       <c r="K106" t="s">
-        <v>870</v>
+        <v>973</v>
       </c>
       <c r="L106" t="s">
-        <v>871</v>
+        <v>974</v>
       </c>
       <c r="M106" t="n">
         <v>5</v>
       </c>
       <c r="N106" t="s">
-        <v>872</v>
+        <v>975</v>
       </c>
       <c r="O106" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P106" t="n">
         <v>5</v>
@@ -10285,56 +11041,60 @@
         <v>0</v>
       </c>
       <c r="W106" t="s">
-        <v>873</v>
+        <v>976</v>
       </c>
       <c r="X106" t="s">
-        <v>874</v>
+        <v>977</v>
       </c>
       <c r="Y106" t="s">
-        <v>875</v>
+        <v>978</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>41220</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>136575</v>
+      </c>
+      <c r="C107" t="s">
+        <v>979</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>876</v>
+        <v>980</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>877</v>
+        <v>981</v>
       </c>
       <c r="J107" t="s">
-        <v>878</v>
+        <v>982</v>
       </c>
       <c r="K107" t="s">
-        <v>879</v>
+        <v>983</v>
       </c>
       <c r="L107" t="s">
-        <v>880</v>
+        <v>984</v>
       </c>
       <c r="M107" t="n">
         <v>3</v>
       </c>
       <c r="N107" t="s">
-        <v>881</v>
+        <v>985</v>
       </c>
       <c r="O107" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P107" t="n">
         <v>3</v>
@@ -10356,56 +11116,60 @@
         <v>0</v>
       </c>
       <c r="W107" t="s">
-        <v>873</v>
+        <v>976</v>
       </c>
       <c r="X107" t="s">
-        <v>874</v>
+        <v>977</v>
       </c>
       <c r="Y107" t="s">
-        <v>882</v>
+        <v>986</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>41220</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>136576</v>
+      </c>
+      <c r="C108" t="s">
+        <v>987</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>883</v>
+        <v>988</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>884</v>
+        <v>989</v>
       </c>
       <c r="J108" t="s">
-        <v>885</v>
+        <v>990</v>
       </c>
       <c r="K108" t="s">
-        <v>886</v>
+        <v>991</v>
       </c>
       <c r="L108" t="s">
-        <v>887</v>
+        <v>992</v>
       </c>
       <c r="M108" t="n">
         <v>5</v>
       </c>
       <c r="N108" t="s">
-        <v>888</v>
+        <v>993</v>
       </c>
       <c r="O108" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P108" t="n">
         <v>5</v>
@@ -10427,47 +11191,51 @@
         <v>0</v>
       </c>
       <c r="W108" t="s">
-        <v>811</v>
+        <v>906</v>
       </c>
       <c r="X108" t="s">
-        <v>812</v>
+        <v>907</v>
       </c>
       <c r="Y108" t="s">
-        <v>889</v>
+        <v>994</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>41220</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>136577</v>
+      </c>
+      <c r="C109" t="s">
+        <v>995</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>890</v>
+        <v>996</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>891</v>
+        <v>997</v>
       </c>
       <c r="J109" t="s">
-        <v>892</v>
+        <v>998</v>
       </c>
       <c r="K109" t="s">
-        <v>893</v>
+        <v>999</v>
       </c>
       <c r="L109" t="s">
-        <v>894</v>
+        <v>1000</v>
       </c>
       <c r="M109" t="n">
         <v>4</v>
@@ -10496,50 +11264,54 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>895</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>41220</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>91105</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1002</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>896</v>
+        <v>1003</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>897</v>
+        <v>1004</v>
       </c>
       <c r="J110" t="s">
-        <v>898</v>
+        <v>1005</v>
       </c>
       <c r="K110" t="s">
-        <v>899</v>
+        <v>1006</v>
       </c>
       <c r="L110" t="s">
-        <v>900</v>
+        <v>1007</v>
       </c>
       <c r="M110" t="n">
         <v>4</v>
       </c>
       <c r="N110" t="s">
-        <v>901</v>
+        <v>1008</v>
       </c>
       <c r="O110" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P110" t="n">
         <v>5</v>
@@ -10559,50 +11331,54 @@
       <c r="W110" t="s"/>
       <c r="X110" t="s"/>
       <c r="Y110" t="s">
-        <v>902</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>41220</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>136578</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1010</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>903</v>
+        <v>1011</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>904</v>
+        <v>1012</v>
       </c>
       <c r="J111" t="s">
-        <v>905</v>
+        <v>1013</v>
       </c>
       <c r="K111" t="s">
-        <v>906</v>
+        <v>1014</v>
       </c>
       <c r="L111" t="s">
-        <v>907</v>
+        <v>1015</v>
       </c>
       <c r="M111" t="n">
         <v>5</v>
       </c>
       <c r="N111" t="s">
-        <v>908</v>
+        <v>1016</v>
       </c>
       <c r="O111" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P111" t="n">
         <v>5</v>
@@ -10622,50 +11398,54 @@
       <c r="W111" t="s"/>
       <c r="X111" t="s"/>
       <c r="Y111" t="s">
-        <v>909</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>41220</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>136579</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1018</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>910</v>
+        <v>1019</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I112" t="s">
-        <v>911</v>
+        <v>1020</v>
       </c>
       <c r="J112" t="s">
-        <v>912</v>
+        <v>1021</v>
       </c>
       <c r="K112" t="s">
-        <v>913</v>
+        <v>1022</v>
       </c>
       <c r="L112" t="s">
-        <v>914</v>
+        <v>1023</v>
       </c>
       <c r="M112" t="n">
         <v>3</v>
       </c>
       <c r="N112" t="s">
-        <v>915</v>
+        <v>1024</v>
       </c>
       <c r="O112" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P112" t="n">
         <v>2</v>
@@ -10689,50 +11469,54 @@
       <c r="W112" t="s"/>
       <c r="X112" t="s"/>
       <c r="Y112" t="s">
-        <v>914</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>41220</v>
       </c>
-      <c r="B113" t="s"/>
-      <c r="C113" t="s"/>
+      <c r="B113" t="n">
+        <v>7271</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1025</v>
+      </c>
       <c r="D113" t="n">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F113" t="s">
-        <v>916</v>
+        <v>1026</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I113" t="s">
-        <v>917</v>
+        <v>1027</v>
       </c>
       <c r="J113" t="s">
-        <v>918</v>
+        <v>1028</v>
       </c>
       <c r="K113" t="s">
-        <v>919</v>
+        <v>1029</v>
       </c>
       <c r="L113" t="s">
-        <v>920</v>
+        <v>1030</v>
       </c>
       <c r="M113" t="n">
         <v>3</v>
       </c>
       <c r="N113" t="s">
-        <v>921</v>
+        <v>1031</v>
       </c>
       <c r="O113" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="P113" t="n">
         <v>3</v>
@@ -10756,50 +11540,54 @@
       <c r="W113" t="s"/>
       <c r="X113" t="s"/>
       <c r="Y113" t="s">
-        <v>920</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>41220</v>
       </c>
-      <c r="B114" t="s"/>
-      <c r="C114" t="s"/>
+      <c r="B114" t="n">
+        <v>136580</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1032</v>
+      </c>
       <c r="D114" t="n">
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F114" t="s">
-        <v>922</v>
+        <v>1033</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I114" t="s">
-        <v>923</v>
+        <v>1034</v>
       </c>
       <c r="J114" t="s">
-        <v>924</v>
+        <v>1035</v>
       </c>
       <c r="K114" t="s">
-        <v>925</v>
+        <v>1036</v>
       </c>
       <c r="L114" t="s">
-        <v>926</v>
+        <v>1037</v>
       </c>
       <c r="M114" t="n">
         <v>5</v>
       </c>
       <c r="N114" t="s">
-        <v>927</v>
+        <v>1038</v>
       </c>
       <c r="O114" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P114" t="n">
         <v>5</v>
@@ -10823,50 +11611,54 @@
       <c r="W114" t="s"/>
       <c r="X114" t="s"/>
       <c r="Y114" t="s">
-        <v>926</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>41220</v>
       </c>
-      <c r="B115" t="s"/>
-      <c r="C115" t="s"/>
+      <c r="B115" t="n">
+        <v>136581</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1039</v>
+      </c>
       <c r="D115" t="n">
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F115" t="s">
-        <v>928</v>
+        <v>1040</v>
       </c>
       <c r="G115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I115" t="s">
-        <v>929</v>
+        <v>1041</v>
       </c>
       <c r="J115" t="s">
-        <v>930</v>
+        <v>1042</v>
       </c>
       <c r="K115" t="s">
-        <v>931</v>
+        <v>1043</v>
       </c>
       <c r="L115" t="s">
-        <v>932</v>
+        <v>1044</v>
       </c>
       <c r="M115" t="n">
         <v>4</v>
       </c>
       <c r="N115" t="s">
-        <v>933</v>
+        <v>1045</v>
       </c>
       <c r="O115" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P115" t="n">
         <v>5</v>
@@ -10890,41 +11682,45 @@
       <c r="W115" t="s"/>
       <c r="X115" t="s"/>
       <c r="Y115" t="s">
-        <v>932</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>41220</v>
       </c>
-      <c r="B116" t="s"/>
-      <c r="C116" t="s"/>
+      <c r="B116" t="n">
+        <v>7</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1046</v>
+      </c>
       <c r="D116" t="n">
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F116" t="s">
-        <v>934</v>
+        <v>1047</v>
       </c>
       <c r="G116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I116" t="s">
-        <v>935</v>
+        <v>1048</v>
       </c>
       <c r="J116" t="s">
-        <v>936</v>
+        <v>1049</v>
       </c>
       <c r="K116" t="s">
-        <v>937</v>
+        <v>1050</v>
       </c>
       <c r="L116" t="s">
-        <v>938</v>
+        <v>1051</v>
       </c>
       <c r="M116" t="n">
         <v>5</v>
@@ -10951,41 +11747,45 @@
       <c r="W116" t="s"/>
       <c r="X116" t="s"/>
       <c r="Y116" t="s">
-        <v>938</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
         <v>41220</v>
       </c>
-      <c r="B117" t="s"/>
-      <c r="C117" t="s"/>
+      <c r="B117" t="n">
+        <v>7</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1046</v>
+      </c>
       <c r="D117" t="n">
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F117" t="s">
-        <v>939</v>
+        <v>1052</v>
       </c>
       <c r="G117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I117" t="s">
-        <v>940</v>
+        <v>1053</v>
       </c>
       <c r="J117" t="s">
-        <v>941</v>
+        <v>1054</v>
       </c>
       <c r="K117" t="s">
-        <v>942</v>
+        <v>1055</v>
       </c>
       <c r="L117" t="s">
-        <v>943</v>
+        <v>1056</v>
       </c>
       <c r="M117" t="n">
         <v>5</v>
@@ -11012,41 +11812,45 @@
       <c r="W117" t="s"/>
       <c r="X117" t="s"/>
       <c r="Y117" t="s">
-        <v>944</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
         <v>41220</v>
       </c>
-      <c r="B118" t="s"/>
-      <c r="C118" t="s"/>
+      <c r="B118" t="n">
+        <v>7</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1046</v>
+      </c>
       <c r="D118" t="n">
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F118" t="s">
-        <v>945</v>
+        <v>1058</v>
       </c>
       <c r="G118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I118" t="s">
-        <v>946</v>
+        <v>1059</v>
       </c>
       <c r="J118" t="s">
-        <v>947</v>
+        <v>1060</v>
       </c>
       <c r="K118" t="s">
-        <v>948</v>
+        <v>1061</v>
       </c>
       <c r="L118" t="s">
-        <v>949</v>
+        <v>1062</v>
       </c>
       <c r="M118" t="n">
         <v>5</v>
@@ -11065,7 +11869,7 @@
       <c r="W118" t="s"/>
       <c r="X118" t="s"/>
       <c r="Y118" t="s">
-        <v>950</v>
+        <v>1063</v>
       </c>
     </row>
   </sheetData>
